--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4502,28 +4502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4392.407872843251</v>
+        <v>4668.590301444151</v>
       </c>
       <c r="AB2" t="n">
-        <v>6009.88623098357</v>
+        <v>6387.771214104168</v>
       </c>
       <c r="AC2" t="n">
-        <v>5436.311124026573</v>
+        <v>5778.131294723031</v>
       </c>
       <c r="AD2" t="n">
-        <v>4392407.872843252</v>
+        <v>4668590.301444151</v>
       </c>
       <c r="AE2" t="n">
-        <v>6009886.23098357</v>
+        <v>6387771.214104168</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.862152907441767e-07</v>
+        <v>7.009592823148835e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.51157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>5436311.124026572</v>
+        <v>5778131.294723031</v>
       </c>
     </row>
     <row r="3">
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2586.761351065203</v>
+        <v>2776.610191219819</v>
       </c>
       <c r="AB3" t="n">
-        <v>3539.321000384247</v>
+        <v>3799.08055902352</v>
       </c>
       <c r="AC3" t="n">
-        <v>3201.533171575664</v>
+        <v>3436.501642513225</v>
       </c>
       <c r="AD3" t="n">
-        <v>2586761.351065203</v>
+        <v>2776610.191219819</v>
       </c>
       <c r="AE3" t="n">
-        <v>3539321.000384247</v>
+        <v>3799080.55902352</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.883060704788485e-07</v>
+        <v>9.923063679000715e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.15509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>3201533.171575664</v>
+        <v>3436501.642513225</v>
       </c>
     </row>
     <row r="4">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2189.038123380845</v>
+        <v>2361.705479290518</v>
       </c>
       <c r="AB4" t="n">
-        <v>2995.138533955857</v>
+        <v>3231.389627857779</v>
       </c>
       <c r="AC4" t="n">
-        <v>2709.286715978443</v>
+        <v>2922.990337058739</v>
       </c>
       <c r="AD4" t="n">
-        <v>2189038.123380845</v>
+        <v>2361705.479290518</v>
       </c>
       <c r="AE4" t="n">
-        <v>2995138.533955857</v>
+        <v>3231389.62785778</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.679764740280942e-07</v>
+        <v>1.107164353563463e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.57175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>2709286.715978443</v>
+        <v>2922990.337058738</v>
       </c>
     </row>
     <row r="5">
@@ -4820,28 +4820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2010.11131545989</v>
+        <v>2173.974711373484</v>
       </c>
       <c r="AB5" t="n">
-        <v>2750.32298166475</v>
+        <v>2974.52810909655</v>
       </c>
       <c r="AC5" t="n">
-        <v>2487.836016397214</v>
+        <v>2690.643321140796</v>
       </c>
       <c r="AD5" t="n">
-        <v>2010111.31545989</v>
+        <v>2173974.711373484</v>
       </c>
       <c r="AE5" t="n">
-        <v>2750322.98166475</v>
+        <v>2974528.109096549</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.108840018459805e-07</v>
+        <v>1.169022609520609e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.48263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2487836.016397214</v>
+        <v>2690643.321140795</v>
       </c>
     </row>
     <row r="6">
@@ -4926,28 +4926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1906.482669638999</v>
+        <v>2061.798038611681</v>
       </c>
       <c r="AB6" t="n">
-        <v>2608.533696679413</v>
+        <v>2821.043036538324</v>
       </c>
       <c r="AC6" t="n">
-        <v>2359.578901768366</v>
+        <v>2551.806648489875</v>
       </c>
       <c r="AD6" t="n">
-        <v>1906482.669638999</v>
+        <v>2061798.038611681</v>
       </c>
       <c r="AE6" t="n">
-        <v>2608533.696679412</v>
+        <v>2821043.036538323</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.374583091603631e-07</v>
+        <v>1.207333842708267e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.29050925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>2359578.901768366</v>
+        <v>2551806.648489874</v>
       </c>
     </row>
     <row r="7">
@@ -5032,28 +5032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1833.295185222994</v>
+        <v>1988.695805541697</v>
       </c>
       <c r="AB7" t="n">
-        <v>2508.395351697499</v>
+        <v>2721.02133620906</v>
       </c>
       <c r="AC7" t="n">
-        <v>2268.997619886477</v>
+        <v>2461.330878858696</v>
       </c>
       <c r="AD7" t="n">
-        <v>1833295.185222994</v>
+        <v>1988695.805541697</v>
       </c>
       <c r="AE7" t="n">
-        <v>2508395.351697499</v>
+        <v>2721021.33620906</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.553145630870234e-07</v>
+        <v>1.233076568565586e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.53240740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>2268997.619886477</v>
+        <v>2461330.878858697</v>
       </c>
     </row>
     <row r="8">
@@ -5138,28 +5138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1770.39222005583</v>
+        <v>1925.707499519961</v>
       </c>
       <c r="AB8" t="n">
-        <v>2422.328739672818</v>
+        <v>2634.83795706218</v>
       </c>
       <c r="AC8" t="n">
-        <v>2191.145084518183</v>
+        <v>2383.372720458464</v>
       </c>
       <c r="AD8" t="n">
-        <v>1770392.22005583</v>
+        <v>1925707.499519961</v>
       </c>
       <c r="AE8" t="n">
-        <v>2422328.739672818</v>
+        <v>2634837.95706218</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.693369742588418e-07</v>
+        <v>1.253292179753539e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.95949074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>2191145.084518183</v>
+        <v>2383372.720458464</v>
       </c>
     </row>
     <row r="9">
@@ -5244,28 +5244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1723.481054402672</v>
+        <v>1878.796333866803</v>
       </c>
       <c r="AB9" t="n">
-        <v>2358.142813251603</v>
+        <v>2570.652030640965</v>
       </c>
       <c r="AC9" t="n">
-        <v>2133.084972829094</v>
+        <v>2325.312608769375</v>
       </c>
       <c r="AD9" t="n">
-        <v>1723481.054402672</v>
+        <v>1878796.333866803</v>
       </c>
       <c r="AE9" t="n">
-        <v>2358142.813251602</v>
+        <v>2570652.030640965</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.803133185843475e-07</v>
+        <v>1.269116384765833e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>35</v>
+        <v>34.52546296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>2133084.972829094</v>
+        <v>2325312.608769375</v>
       </c>
     </row>
     <row r="10">
@@ -5350,28 +5350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1688.384641188085</v>
+        <v>1835.066642365283</v>
       </c>
       <c r="AB10" t="n">
-        <v>2310.122352346929</v>
+        <v>2510.819137510753</v>
       </c>
       <c r="AC10" t="n">
-        <v>2089.647517316023</v>
+        <v>2271.190082983519</v>
       </c>
       <c r="AD10" t="n">
-        <v>1688384.641188085</v>
+        <v>1835066.642365283</v>
       </c>
       <c r="AE10" t="n">
-        <v>2310122.352346929</v>
+        <v>2510819.137510753</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.878234489123251e-07</v>
+        <v>1.279943472405822e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>34.23032407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>2089647.517316023</v>
+        <v>2271190.082983519</v>
       </c>
     </row>
     <row r="11">
@@ -5456,28 +5456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1649.064468028205</v>
+        <v>1804.294406637764</v>
       </c>
       <c r="AB11" t="n">
-        <v>2256.322756745969</v>
+        <v>2468.715207013134</v>
       </c>
       <c r="AC11" t="n">
-        <v>2040.982479611012</v>
+        <v>2233.104492519355</v>
       </c>
       <c r="AD11" t="n">
-        <v>1649064.468028205</v>
+        <v>1804294.406637764</v>
       </c>
       <c r="AE11" t="n">
-        <v>2256322.756745969</v>
+        <v>2468715.207013134</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.942306929683621e-07</v>
+        <v>1.289180568154625e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.98726851851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>2040982.479611012</v>
+        <v>2233104.492519354</v>
       </c>
     </row>
     <row r="12">
@@ -5562,28 +5562,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1620.288436701216</v>
+        <v>1775.518375310776</v>
       </c>
       <c r="AB12" t="n">
-        <v>2216.950121175479</v>
+        <v>2429.342571442644</v>
       </c>
       <c r="AC12" t="n">
-        <v>2005.367513119528</v>
+        <v>2197.489526027871</v>
       </c>
       <c r="AD12" t="n">
-        <v>1620288.436701216</v>
+        <v>1775518.375310776</v>
       </c>
       <c r="AE12" t="n">
-        <v>2216950.121175479</v>
+        <v>2429342.571442644</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.992199403890465e-07</v>
+        <v>1.296373388614759e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.7962962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>2005367.513119528</v>
+        <v>2197489.526027871</v>
       </c>
     </row>
     <row r="13">
@@ -5668,28 +5668,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1583.260826015395</v>
+        <v>1730.028078538615</v>
       </c>
       <c r="AB13" t="n">
-        <v>2166.287310692245</v>
+        <v>2367.100740508718</v>
       </c>
       <c r="AC13" t="n">
-        <v>1959.539890163113</v>
+        <v>2141.187968081321</v>
       </c>
       <c r="AD13" t="n">
-        <v>1583260.826015395</v>
+        <v>1730028.078538615</v>
       </c>
       <c r="AE13" t="n">
-        <v>2166287.310692245</v>
+        <v>2367100.740508718</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.046293349609466e-07</v>
+        <v>1.304171920271535e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>33.59953703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>1959539.890163113</v>
+        <v>2141187.968081321</v>
       </c>
     </row>
     <row r="14">
@@ -5774,28 +5774,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1558.179360373991</v>
+        <v>1704.776020696618</v>
       </c>
       <c r="AB14" t="n">
-        <v>2131.969742885506</v>
+        <v>2332.549760927132</v>
       </c>
       <c r="AC14" t="n">
-        <v>1928.49754286284</v>
+        <v>2109.934485498397</v>
       </c>
       <c r="AD14" t="n">
-        <v>1558179.360373991</v>
+        <v>1704776.020696618</v>
       </c>
       <c r="AE14" t="n">
-        <v>2131969.742885506</v>
+        <v>2332549.760927132</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.075703650194554e-07</v>
+        <v>1.308411898648034e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>34</v>
+        <v>33.48958333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1928497.54286284</v>
+        <v>2109934.485498397</v>
       </c>
     </row>
     <row r="15">
@@ -5880,28 +5880,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1536.439019588664</v>
+        <v>1683.035679911291</v>
       </c>
       <c r="AB15" t="n">
-        <v>2102.223649506877</v>
+        <v>2302.803667548504</v>
       </c>
       <c r="AC15" t="n">
-        <v>1901.590374887363</v>
+        <v>2083.02731752292</v>
       </c>
       <c r="AD15" t="n">
-        <v>1536439.019588664</v>
+        <v>1683035.679911291</v>
       </c>
       <c r="AE15" t="n">
-        <v>2102223.649506877</v>
+        <v>2302803.667548504</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.105639134718659e-07</v>
+        <v>1.312727590924114e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>34</v>
+        <v>33.37962962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1901590.374887363</v>
+        <v>2083027.31752292</v>
       </c>
     </row>
     <row r="16">
@@ -5986,28 +5986,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1530.224238432685</v>
+        <v>1676.820898755312</v>
       </c>
       <c r="AB16" t="n">
-        <v>2093.720311752472</v>
+        <v>2294.300329794099</v>
       </c>
       <c r="AC16" t="n">
-        <v>1893.898583753729</v>
+        <v>2075.335526389286</v>
       </c>
       <c r="AD16" t="n">
-        <v>1530224.238432685</v>
+        <v>1676820.898755312</v>
       </c>
       <c r="AE16" t="n">
-        <v>2093720.311752472</v>
+        <v>2294300.329794099</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.11404207774297e-07</v>
+        <v>1.3139390133174e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>34</v>
+        <v>33.3449074074074</v>
       </c>
       <c r="AH16" t="n">
-        <v>1893898.583753729</v>
+        <v>2075335.526389286</v>
       </c>
     </row>
     <row r="17">
@@ -6092,28 +6092,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1535.538108649455</v>
+        <v>1682.134768972082</v>
       </c>
       <c r="AB17" t="n">
-        <v>2100.990983414465</v>
+        <v>2301.571001456092</v>
       </c>
       <c r="AC17" t="n">
-        <v>1900.475352716754</v>
+        <v>2081.912295352311</v>
       </c>
       <c r="AD17" t="n">
-        <v>1535538.108649455</v>
+        <v>1682134.768972082</v>
       </c>
       <c r="AE17" t="n">
-        <v>2100990.983414465</v>
+        <v>2301571.001456092</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.115092445621011e-07</v>
+        <v>1.314090441116561e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>34</v>
+        <v>33.3449074074074</v>
       </c>
       <c r="AH17" t="n">
-        <v>1900475.352716754</v>
+        <v>2081912.295352311</v>
       </c>
     </row>
   </sheetData>
@@ -6389,28 +6389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3283.112118840257</v>
+        <v>3518.714637525771</v>
       </c>
       <c r="AB2" t="n">
-        <v>4492.098841681837</v>
+        <v>4814.460601796924</v>
       </c>
       <c r="AC2" t="n">
-        <v>4063.379232931875</v>
+        <v>4354.975239099138</v>
       </c>
       <c r="AD2" t="n">
-        <v>3283112.118840257</v>
+        <v>3518714.637525771</v>
       </c>
       <c r="AE2" t="n">
-        <v>4492098.841681837</v>
+        <v>4814460.601796924</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.75567186126068e-07</v>
+        <v>8.426087082537185e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.62384259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>4063379.232931875</v>
+        <v>4354975.239099138</v>
       </c>
     </row>
     <row r="3">
@@ -6495,28 +6495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2128.236929003168</v>
+        <v>2304.832231457643</v>
       </c>
       <c r="AB3" t="n">
-        <v>2911.947657448935</v>
+        <v>3153.573141102222</v>
       </c>
       <c r="AC3" t="n">
-        <v>2634.035459966214</v>
+        <v>2852.600546583009</v>
       </c>
       <c r="AD3" t="n">
-        <v>2128236.929003168</v>
+        <v>2304832.231457643</v>
       </c>
       <c r="AE3" t="n">
-        <v>2911947.657448935</v>
+        <v>3153573.141102222</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.619718506152638e-07</v>
+        <v>1.115498124717614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.26157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>2634035.459966214</v>
+        <v>2852600.546583009</v>
       </c>
     </row>
     <row r="4">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1840.267795725509</v>
+        <v>2008.445585116427</v>
       </c>
       <c r="AB4" t="n">
-        <v>2517.935584996906</v>
+        <v>2748.043855921986</v>
       </c>
       <c r="AC4" t="n">
-        <v>2277.62734670959</v>
+        <v>2485.774407216567</v>
       </c>
       <c r="AD4" t="n">
-        <v>1840267.795725509</v>
+        <v>2008445.585116427</v>
       </c>
       <c r="AE4" t="n">
-        <v>2517935.584996906</v>
+        <v>2748043.855921986</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.336325187765138e-07</v>
+        <v>1.220406647106387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.71412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>2277627.34670959</v>
+        <v>2485774.407216567</v>
       </c>
     </row>
     <row r="5">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1710.145982444618</v>
+        <v>1861.574355088652</v>
       </c>
       <c r="AB5" t="n">
-        <v>2339.897179496738</v>
+        <v>2547.088159496617</v>
       </c>
       <c r="AC5" t="n">
-        <v>2116.580676751886</v>
+        <v>2303.997640414943</v>
       </c>
       <c r="AD5" t="n">
-        <v>1710145.982444618</v>
+        <v>1861574.355088652</v>
       </c>
       <c r="AE5" t="n">
-        <v>2339897.179496738</v>
+        <v>2547088.159496617</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.711199039404733e-07</v>
+        <v>1.275286768750248e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2116580.676751886</v>
+        <v>2303997.640414943</v>
       </c>
     </row>
     <row r="6">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1625.506053037773</v>
+        <v>1776.849084827236</v>
       </c>
       <c r="AB6" t="n">
-        <v>2224.089094032144</v>
+        <v>2431.163306909825</v>
       </c>
       <c r="AC6" t="n">
-        <v>2011.825152426364</v>
+        <v>2199.136493057482</v>
       </c>
       <c r="AD6" t="n">
-        <v>1625506.053037773</v>
+        <v>1776849.084827236</v>
       </c>
       <c r="AE6" t="n">
-        <v>2224089.094032144</v>
+        <v>2431163.306909825</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.94101300932292e-07</v>
+        <v>1.30893066941018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.16203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>2011825.152426364</v>
+        <v>2199136.493057482</v>
       </c>
     </row>
     <row r="7">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1556.300059854013</v>
+        <v>1707.728342989496</v>
       </c>
       <c r="AB7" t="n">
-        <v>2129.398401005185</v>
+        <v>2336.589258535515</v>
       </c>
       <c r="AC7" t="n">
-        <v>1926.171606242676</v>
+        <v>2113.588459124506</v>
       </c>
       <c r="AD7" t="n">
-        <v>1556300.059854013</v>
+        <v>1707728.342989496</v>
       </c>
       <c r="AE7" t="n">
-        <v>2129398.401005185</v>
+        <v>2336589.258535515</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.10400164047057e-07</v>
+        <v>1.332791591864033e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.53703703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>1926171.606242676</v>
+        <v>2113588.459124506</v>
       </c>
     </row>
     <row r="8">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1512.278782464933</v>
+        <v>1655.289731553964</v>
       </c>
       <c r="AB8" t="n">
-        <v>2069.166547199752</v>
+        <v>2264.840436941156</v>
       </c>
       <c r="AC8" t="n">
-        <v>1871.688196028495</v>
+        <v>2048.68724436301</v>
       </c>
       <c r="AD8" t="n">
-        <v>1512278.782464933</v>
+        <v>1655289.731553964</v>
       </c>
       <c r="AE8" t="n">
-        <v>2069166.547199752</v>
+        <v>2264840.436941157</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.21483390965097e-07</v>
+        <v>1.349017019132652e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.12037037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1871688.196028495</v>
+        <v>2048687.24436301</v>
       </c>
     </row>
     <row r="9">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1459.321079345901</v>
+        <v>1610.664021626812</v>
       </c>
       <c r="AB9" t="n">
-        <v>1996.70748146332</v>
+        <v>2203.781571871453</v>
       </c>
       <c r="AC9" t="n">
-        <v>1806.144521829012</v>
+        <v>1993.455751678903</v>
       </c>
       <c r="AD9" t="n">
-        <v>1459321.079345901</v>
+        <v>1610664.021626812</v>
       </c>
       <c r="AE9" t="n">
-        <v>1996707.48146332</v>
+        <v>2203781.571871453</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.29904470241059e-07</v>
+        <v>1.361345162400476e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.80787037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1806144.521829012</v>
+        <v>1993455.751678903</v>
       </c>
     </row>
     <row r="10">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1423.704544181905</v>
+        <v>1566.800744616957</v>
       </c>
       <c r="AB10" t="n">
-        <v>1947.975366761307</v>
+        <v>2143.765901155361</v>
       </c>
       <c r="AC10" t="n">
-        <v>1762.063331758205</v>
+        <v>1939.167892343432</v>
       </c>
       <c r="AD10" t="n">
-        <v>1423704.544181905</v>
+        <v>1566800.744616957</v>
       </c>
       <c r="AE10" t="n">
-        <v>1947975.366761307</v>
+        <v>2143765.901155361</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.369673109241239e-07</v>
+        <v>1.371684895463813e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.55324074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1762063.331758205</v>
+        <v>1939167.892343432</v>
       </c>
     </row>
     <row r="11">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1393.478152643288</v>
+        <v>1536.403760877747</v>
       </c>
       <c r="AB11" t="n">
-        <v>1906.618284363889</v>
+        <v>2102.175406983096</v>
       </c>
       <c r="AC11" t="n">
-        <v>1724.653311259767</v>
+        <v>1901.546736562343</v>
       </c>
       <c r="AD11" t="n">
-        <v>1393478.152643288</v>
+        <v>1536403.760877747</v>
       </c>
       <c r="AE11" t="n">
-        <v>1906618.284363889</v>
+        <v>2102175.406983096</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.415309925962581e-07</v>
+        <v>1.378365953750891e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.3912037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1724653.311259768</v>
+        <v>1901546.736562343</v>
       </c>
     </row>
     <row r="12">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1392.941605160594</v>
+        <v>1535.867213395053</v>
       </c>
       <c r="AB12" t="n">
-        <v>1905.884156427262</v>
+        <v>2101.441279046469</v>
       </c>
       <c r="AC12" t="n">
-        <v>1723.989247463057</v>
+        <v>1900.882672765633</v>
       </c>
       <c r="AD12" t="n">
-        <v>1392941.605160594</v>
+        <v>1535867.213395053</v>
       </c>
       <c r="AE12" t="n">
-        <v>1905884.156427262</v>
+        <v>2101441.279046469</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.419656289459851e-07</v>
+        <v>1.379002245016327e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.37962962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>1723989.247463057</v>
+        <v>1900882.672765633</v>
       </c>
     </row>
   </sheetData>
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1514.892991971968</v>
+        <v>1677.920714536433</v>
       </c>
       <c r="AB2" t="n">
-        <v>2072.74342397806</v>
+        <v>2295.805146266276</v>
       </c>
       <c r="AC2" t="n">
-        <v>1874.92370070726</v>
+        <v>2076.696725289382</v>
       </c>
       <c r="AD2" t="n">
-        <v>1514892.991971968</v>
+        <v>1677920.714536433</v>
       </c>
       <c r="AE2" t="n">
-        <v>2072743.42397806</v>
+        <v>2295805.146266276</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.578275650382392e-07</v>
+        <v>1.327165127271141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.89699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1874923.700707261</v>
+        <v>2076696.725289382</v>
       </c>
     </row>
     <row r="3">
@@ -7852,28 +7852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1175.013650001096</v>
+        <v>1314.824847217413</v>
       </c>
       <c r="AB3" t="n">
-        <v>1607.705513875199</v>
+        <v>1799.001361941267</v>
       </c>
       <c r="AC3" t="n">
-        <v>1454.26835605981</v>
+        <v>1627.307196871862</v>
       </c>
       <c r="AD3" t="n">
-        <v>1175013.650001096</v>
+        <v>1314824.847217413</v>
       </c>
       <c r="AE3" t="n">
-        <v>1607705.513875199</v>
+        <v>1799001.361941267</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.866532594344413e-07</v>
+        <v>1.526474377833062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.55555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1454268.35605981</v>
+        <v>1627307.196871862</v>
       </c>
     </row>
     <row r="4">
@@ -7958,28 +7958,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1060.347904860413</v>
+        <v>1192.30656199647</v>
       </c>
       <c r="AB4" t="n">
-        <v>1450.814782678066</v>
+        <v>1631.366438976703</v>
       </c>
       <c r="AC4" t="n">
-        <v>1312.351056050607</v>
+        <v>1475.671115677943</v>
       </c>
       <c r="AD4" t="n">
-        <v>1060347.904860413</v>
+        <v>1192306.56199647</v>
       </c>
       <c r="AE4" t="n">
-        <v>1450814.782678066</v>
+        <v>1631366.438976703</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.028119977065972e-06</v>
+        <v>1.590628508366875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.12037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1312351.056050607</v>
+        <v>1475671.115677943</v>
       </c>
     </row>
     <row r="5">
@@ -8064,28 +8064,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1062.581124428013</v>
+        <v>1194.539781564069</v>
       </c>
       <c r="AB5" t="n">
-        <v>1453.87037221315</v>
+        <v>1634.422028511788</v>
       </c>
       <c r="AC5" t="n">
-        <v>1315.115024409009</v>
+        <v>1478.435084036346</v>
       </c>
       <c r="AD5" t="n">
-        <v>1062581.124428013</v>
+        <v>1194539.781564069</v>
       </c>
       <c r="AE5" t="n">
-        <v>1453870.37221315</v>
+        <v>1634422.028511788</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.028604967915463e-06</v>
+        <v>1.591378849074873e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.1087962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1315115.024409009</v>
+        <v>1478435.084036346</v>
       </c>
     </row>
   </sheetData>
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2039.720101502642</v>
+        <v>2224.043216072178</v>
       </c>
       <c r="AB2" t="n">
-        <v>2790.835028975893</v>
+        <v>3043.03404609201</v>
       </c>
       <c r="AC2" t="n">
-        <v>2524.481650771997</v>
+        <v>2752.611147657981</v>
       </c>
       <c r="AD2" t="n">
-        <v>2039720.101502642</v>
+        <v>2224043.216072178</v>
       </c>
       <c r="AE2" t="n">
-        <v>2790835.028975893</v>
+        <v>3043034.04609201</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.454924029229889e-07</v>
+        <v>1.12665817205493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.02314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>2524481.650771997</v>
+        <v>2752611.147657981</v>
       </c>
     </row>
     <row r="3">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1497.012955987658</v>
+        <v>1649.250208510213</v>
       </c>
       <c r="AB3" t="n">
-        <v>2048.279169932812</v>
+        <v>2256.576895067745</v>
       </c>
       <c r="AC3" t="n">
-        <v>1852.794280732294</v>
+        <v>2041.212363328042</v>
       </c>
       <c r="AD3" t="n">
-        <v>1497012.955987658</v>
+        <v>1649250.208510213</v>
       </c>
       <c r="AE3" t="n">
-        <v>2048279.169932812</v>
+        <v>2256576.895067745</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.979663042209924e-07</v>
+        <v>1.357091059431031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.37847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1852794.280732294</v>
+        <v>2041212.363328042</v>
       </c>
     </row>
     <row r="4">
@@ -8573,28 +8573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1335.633657438376</v>
+        <v>1479.849444449187</v>
       </c>
       <c r="AB4" t="n">
-        <v>1827.472894105506</v>
+        <v>2024.795296245187</v>
       </c>
       <c r="AC4" t="n">
-        <v>1653.061445966392</v>
+        <v>1831.551674989593</v>
       </c>
       <c r="AD4" t="n">
-        <v>1335633.657438376</v>
+        <v>1479849.444449187</v>
       </c>
       <c r="AE4" t="n">
-        <v>1827472.894105506</v>
+        <v>2024795.296245187</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.526573992852819e-07</v>
+        <v>1.43974538152904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.23148148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>1653061.445966392</v>
+        <v>1831551.674989593</v>
       </c>
     </row>
     <row r="5">
@@ -8679,28 +8679,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1239.726476242097</v>
+        <v>1376.006138595734</v>
       </c>
       <c r="AB5" t="n">
-        <v>1696.24845766654</v>
+        <v>1882.712303933167</v>
       </c>
       <c r="AC5" t="n">
-        <v>1534.360885566507</v>
+        <v>1703.0288840491</v>
       </c>
       <c r="AD5" t="n">
-        <v>1239726.476242097</v>
+        <v>1376006.138595734</v>
       </c>
       <c r="AE5" t="n">
-        <v>1696248.45766654</v>
+        <v>1882712.303933167</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.813658744250732e-07</v>
+        <v>1.483132326850899e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.20138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1534360.885566507</v>
+        <v>1703028.8840491</v>
       </c>
     </row>
     <row r="6">
@@ -8785,28 +8785,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1175.332268832424</v>
+        <v>1319.547966334683</v>
       </c>
       <c r="AB6" t="n">
-        <v>1608.141462216694</v>
+        <v>1805.463741886826</v>
       </c>
       <c r="AC6" t="n">
-        <v>1454.662698103449</v>
+        <v>1633.152816345424</v>
       </c>
       <c r="AD6" t="n">
-        <v>1175332.268832424</v>
+        <v>1319547.966334683</v>
       </c>
       <c r="AE6" t="n">
-        <v>1608141.462216693</v>
+        <v>1805463.741886826</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.967350580857697e-07</v>
+        <v>1.506359681417148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.67476851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>1454662.698103449</v>
+        <v>1633152.816345424</v>
       </c>
     </row>
     <row r="7">
@@ -8891,28 +8891,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1173.898276187791</v>
+        <v>1310.263189887449</v>
       </c>
       <c r="AB7" t="n">
-        <v>1606.179410217016</v>
+        <v>1792.759901136293</v>
       </c>
       <c r="AC7" t="n">
-        <v>1452.887901592864</v>
+        <v>1621.661412326169</v>
       </c>
       <c r="AD7" t="n">
-        <v>1173898.276187791</v>
+        <v>1310263.189887449</v>
       </c>
       <c r="AE7" t="n">
-        <v>1606179.410217016</v>
+        <v>1792759.901136293</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.977790026363077e-07</v>
+        <v>1.507937388519761e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.6400462962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1452887.901592864</v>
+        <v>1621661.412326169</v>
       </c>
     </row>
   </sheetData>
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1180.156910659888</v>
+        <v>1323.68908041955</v>
       </c>
       <c r="AB2" t="n">
-        <v>1614.742750013205</v>
+        <v>1811.1297968708</v>
       </c>
       <c r="AC2" t="n">
-        <v>1460.633968257628</v>
+        <v>1638.278110994085</v>
       </c>
       <c r="AD2" t="n">
-        <v>1180156.910659888</v>
+        <v>1323689.080419549</v>
       </c>
       <c r="AE2" t="n">
-        <v>1614742.750013205</v>
+        <v>1811129.7968708</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540150076701119e-07</v>
+        <v>1.50780926222915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.19444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1460633.968257628</v>
+        <v>1638278.110994085</v>
       </c>
     </row>
     <row r="3">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.6809240770494</v>
+        <v>1096.654192691019</v>
       </c>
       <c r="AB3" t="n">
-        <v>1314.446022573401</v>
+        <v>1500.490647408276</v>
       </c>
       <c r="AC3" t="n">
-        <v>1188.997139015574</v>
+        <v>1357.28592597148</v>
       </c>
       <c r="AD3" t="n">
-        <v>960680.9240770495</v>
+        <v>1096654.192691019</v>
       </c>
       <c r="AE3" t="n">
-        <v>1314446.022573401</v>
+        <v>1500490.647408276</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049340952866294e-06</v>
+        <v>1.658470773779766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.72222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1188997.139015574</v>
+        <v>1357285.92597148</v>
       </c>
     </row>
     <row r="4">
@@ -9400,28 +9400,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>966.3968762541988</v>
+        <v>1102.370144868168</v>
       </c>
       <c r="AB4" t="n">
-        <v>1322.266840512189</v>
+        <v>1508.311465347065</v>
       </c>
       <c r="AC4" t="n">
-        <v>1196.071549066872</v>
+        <v>1364.360336022778</v>
       </c>
       <c r="AD4" t="n">
-        <v>966396.8762541988</v>
+        <v>1102370.144868168</v>
       </c>
       <c r="AE4" t="n">
-        <v>1322266.84051219</v>
+        <v>1508311.465347065</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.050033545598895e-06</v>
+        <v>1.65956540827584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.69907407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>1196071.549066872</v>
+        <v>1364360.336022777</v>
       </c>
     </row>
   </sheetData>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3534.990774094469</v>
+        <v>3780.486137960074</v>
       </c>
       <c r="AB2" t="n">
-        <v>4836.730329902685</v>
+        <v>5172.627917234704</v>
       </c>
       <c r="AC2" t="n">
-        <v>4375.119575610244</v>
+        <v>4678.959568642506</v>
       </c>
       <c r="AD2" t="n">
-        <v>3534990.774094468</v>
+        <v>3780486.137960074</v>
       </c>
       <c r="AE2" t="n">
-        <v>4836730.329902685</v>
+        <v>5172627.917234704</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.518754295587561e-07</v>
+        <v>8.045716219391891e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.45833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4375119.575610245</v>
+        <v>4678959.568642506</v>
       </c>
     </row>
     <row r="3">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2231.926867138908</v>
+        <v>2418.188203783452</v>
       </c>
       <c r="AB3" t="n">
-        <v>3053.820805283649</v>
+        <v>3308.671783350956</v>
       </c>
       <c r="AC3" t="n">
-        <v>2762.368433691681</v>
+        <v>2992.896792097829</v>
       </c>
       <c r="AD3" t="n">
-        <v>2231926.867138908</v>
+        <v>2418188.203783452</v>
       </c>
       <c r="AE3" t="n">
-        <v>3053820.805283649</v>
+        <v>3308671.783350956</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.427435659281016e-07</v>
+        <v>1.082835660941572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.95023148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>2762368.433691681</v>
+        <v>2992896.792097829</v>
       </c>
     </row>
     <row r="4">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1931.202836929677</v>
+        <v>2092.127055980024</v>
       </c>
       <c r="AB4" t="n">
-        <v>2642.356920143331</v>
+        <v>2862.540536123502</v>
       </c>
       <c r="AC4" t="n">
-        <v>2390.17408425608</v>
+        <v>2589.34368495675</v>
       </c>
       <c r="AD4" t="n">
-        <v>1931202.836929678</v>
+        <v>2092127.055980023</v>
       </c>
       <c r="AE4" t="n">
-        <v>2642356.920143331</v>
+        <v>2862540.536123502</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.161833791884083e-07</v>
+        <v>1.189902557753773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.17708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2390174.08425608</v>
+        <v>2589343.68495675</v>
       </c>
     </row>
     <row r="5">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1784.422566353831</v>
+        <v>1945.176103695034</v>
       </c>
       <c r="AB5" t="n">
-        <v>2441.525678452937</v>
+        <v>2661.475760188713</v>
       </c>
       <c r="AC5" t="n">
-        <v>2208.509894404199</v>
+        <v>2407.468249040991</v>
       </c>
       <c r="AD5" t="n">
-        <v>1784422.566353831</v>
+        <v>1945176.103695034</v>
       </c>
       <c r="AE5" t="n">
-        <v>2441525.678452936</v>
+        <v>2661475.760188713</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.548415800101826e-07</v>
+        <v>1.246261818685708e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.44675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>2208509.894404199</v>
+        <v>2407468.249040992</v>
       </c>
     </row>
     <row r="6">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1691.976134722195</v>
+        <v>1844.340830265528</v>
       </c>
       <c r="AB6" t="n">
-        <v>2315.036392245811</v>
+        <v>2523.508490544163</v>
       </c>
       <c r="AC6" t="n">
-        <v>2094.092568143854</v>
+        <v>2282.668381973038</v>
       </c>
       <c r="AD6" t="n">
-        <v>1691976.134722195</v>
+        <v>1844340.830265529</v>
       </c>
       <c r="AE6" t="n">
-        <v>2315036.392245811</v>
+        <v>2523508.490544163</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.794471479427047e-07</v>
+        <v>1.282133938805338e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.42824074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>2094092.568143854</v>
+        <v>2282668.381973038</v>
       </c>
     </row>
     <row r="7">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1626.139753304932</v>
+        <v>1778.589700194287</v>
       </c>
       <c r="AB7" t="n">
-        <v>2224.956150694553</v>
+        <v>2433.544893645554</v>
       </c>
       <c r="AC7" t="n">
-        <v>2012.609458417835</v>
+        <v>2201.290784497731</v>
       </c>
       <c r="AD7" t="n">
-        <v>1626139.753304932</v>
+        <v>1778589.700194287</v>
       </c>
       <c r="AE7" t="n">
-        <v>2224956.150694553</v>
+        <v>2433544.893645554</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.955457580342235e-07</v>
+        <v>1.305603881728247e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.79166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2012609.458417835</v>
+        <v>2201290.784497731</v>
       </c>
     </row>
     <row r="8">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1577.879632512011</v>
+        <v>1730.158987200773</v>
       </c>
       <c r="AB8" t="n">
-        <v>2158.924524339412</v>
+        <v>2367.279855515565</v>
       </c>
       <c r="AC8" t="n">
-        <v>1952.879797806058</v>
+        <v>2141.349988603304</v>
       </c>
       <c r="AD8" t="n">
-        <v>1577879.632512011</v>
+        <v>1730158.987200773</v>
       </c>
       <c r="AE8" t="n">
-        <v>2158924.524339411</v>
+        <v>2367279.855515565</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.073908892052408e-07</v>
+        <v>1.322872736052796e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.34027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1952879.797806058</v>
+        <v>2141349.988603304</v>
       </c>
     </row>
     <row r="9">
@@ -10439,28 +10439,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1528.506637310167</v>
+        <v>1680.871243344949</v>
       </c>
       <c r="AB9" t="n">
-        <v>2091.370214121429</v>
+        <v>2299.842189950232</v>
       </c>
       <c r="AC9" t="n">
-        <v>1891.77277614221</v>
+        <v>2080.348479190168</v>
       </c>
       <c r="AD9" t="n">
-        <v>1528506.637310167</v>
+        <v>1680871.243344949</v>
       </c>
       <c r="AE9" t="n">
-        <v>2091370.214121429</v>
+        <v>2299842.189950232</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.170823601633457e-07</v>
+        <v>1.337001798681972e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.97569444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>1891772.77614221</v>
+        <v>2080348.479190168</v>
       </c>
     </row>
     <row r="10">
@@ -10545,28 +10545,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1487.801603409351</v>
+        <v>1640.166209444134</v>
       </c>
       <c r="AB10" t="n">
-        <v>2035.675790958977</v>
+        <v>2244.14776678778</v>
       </c>
       <c r="AC10" t="n">
-        <v>1841.393750558769</v>
+        <v>2029.969453606727</v>
       </c>
       <c r="AD10" t="n">
-        <v>1487801.603409351</v>
+        <v>1640166.209444134</v>
       </c>
       <c r="AE10" t="n">
-        <v>2035675.790958977</v>
+        <v>2244147.76678778</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.234356577914368e-07</v>
+        <v>1.34626418418332e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.73842592592592</v>
       </c>
       <c r="AH10" t="n">
-        <v>1841393.750558769</v>
+        <v>2029969.453606727</v>
       </c>
     </row>
     <row r="11">
@@ -10651,28 +10651,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1451.34004185458</v>
+        <v>1595.401146946066</v>
       </c>
       <c r="AB11" t="n">
-        <v>1985.787473869171</v>
+        <v>2182.898233382748</v>
       </c>
       <c r="AC11" t="n">
-        <v>1796.266704433321</v>
+        <v>1974.56548970561</v>
       </c>
       <c r="AD11" t="n">
-        <v>1451340.04185458</v>
+        <v>1595401.146946066</v>
       </c>
       <c r="AE11" t="n">
-        <v>1985787.473869171</v>
+        <v>2182898.233382748</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.300043214408191e-07</v>
+        <v>1.355840548854207e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.50115740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>1796266.704433321</v>
+        <v>1974565.48970561</v>
       </c>
     </row>
     <row r="12">
@@ -10757,28 +10757,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1427.891478985027</v>
+        <v>1571.781991875921</v>
       </c>
       <c r="AB12" t="n">
-        <v>1953.704115673465</v>
+        <v>2150.581463412194</v>
       </c>
       <c r="AC12" t="n">
-        <v>1767.245336914537</v>
+        <v>1945.332986904175</v>
       </c>
       <c r="AD12" t="n">
-        <v>1427891.478985027</v>
+        <v>1571781.99187592</v>
       </c>
       <c r="AE12" t="n">
-        <v>1953704.115673465</v>
+        <v>2150581.463412194</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.330194457388963e-07</v>
+        <v>1.360236257227728e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.39699074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>1767245.336914537</v>
+        <v>1945332.986904175</v>
       </c>
     </row>
     <row r="13">
@@ -10863,28 +10863,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1425.759246159309</v>
+        <v>1569.649759050203</v>
       </c>
       <c r="AB13" t="n">
-        <v>1950.786700653844</v>
+        <v>2147.664048392574</v>
       </c>
       <c r="AC13" t="n">
-        <v>1764.606355889771</v>
+        <v>1942.69400587941</v>
       </c>
       <c r="AD13" t="n">
-        <v>1425759.24615931</v>
+        <v>1569649.759050203</v>
       </c>
       <c r="AE13" t="n">
-        <v>1950786.700653845</v>
+        <v>2147664.048392574</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.339885928347066e-07</v>
+        <v>1.361649163490645e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>33.36226851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>1764606.355889771</v>
+        <v>1942694.00587941</v>
       </c>
     </row>
     <row r="14">
@@ -10969,28 +10969,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1431.23666883763</v>
+        <v>1575.127181728524</v>
       </c>
       <c r="AB14" t="n">
-        <v>1958.281152009157</v>
+        <v>2155.158499747886</v>
       </c>
       <c r="AC14" t="n">
-        <v>1771.385547326261</v>
+        <v>1949.473197315899</v>
       </c>
       <c r="AD14" t="n">
-        <v>1431236.66883763</v>
+        <v>1575127.181728524</v>
       </c>
       <c r="AE14" t="n">
-        <v>1958281.152009157</v>
+        <v>2155158.499747886</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.339347513293837e-07</v>
+        <v>1.361570668698261e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>34</v>
+        <v>33.36226851851852</v>
       </c>
       <c r="AH14" t="n">
-        <v>1771385.547326261</v>
+        <v>1949473.197315899</v>
       </c>
     </row>
   </sheetData>
@@ -11266,28 +11266,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>991.2745279662378</v>
+        <v>1132.461064751498</v>
       </c>
       <c r="AB2" t="n">
-        <v>1356.305541109135</v>
+        <v>1549.483189449131</v>
       </c>
       <c r="AC2" t="n">
-        <v>1226.861643852461</v>
+        <v>1401.60268856142</v>
       </c>
       <c r="AD2" t="n">
-        <v>991274.5279662377</v>
+        <v>1132461.064751498</v>
       </c>
       <c r="AE2" t="n">
-        <v>1356305.541109135</v>
+        <v>1549483.189449131</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.015176006607182e-06</v>
+        <v>1.626550425071391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.73032407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1226861.643852461</v>
+        <v>1401602.68856142</v>
       </c>
     </row>
     <row r="3">
@@ -11372,28 +11372,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>914.68994916679</v>
+        <v>1048.355872624986</v>
       </c>
       <c r="AB3" t="n">
-        <v>1251.519141722569</v>
+        <v>1434.406755122432</v>
       </c>
       <c r="AC3" t="n">
-        <v>1132.075911354714</v>
+        <v>1297.508987616071</v>
       </c>
       <c r="AD3" t="n">
-        <v>914689.94916679</v>
+        <v>1048355.872624986</v>
       </c>
       <c r="AE3" t="n">
-        <v>1251519.141722569</v>
+        <v>1434406.755122432</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.05692999278817e-06</v>
+        <v>1.693450118847732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.28356481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1132075.911354714</v>
+        <v>1297508.987616071</v>
       </c>
     </row>
   </sheetData>
@@ -11669,28 +11669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2612.391186014802</v>
+        <v>2826.284037676955</v>
       </c>
       <c r="AB2" t="n">
-        <v>3574.388871270808</v>
+        <v>3867.046507201617</v>
       </c>
       <c r="AC2" t="n">
-        <v>3233.254214082875</v>
+        <v>3497.981015988008</v>
       </c>
       <c r="AD2" t="n">
-        <v>2612391.186014802</v>
+        <v>2826284.037676955</v>
       </c>
       <c r="AE2" t="n">
-        <v>3574388.871270808</v>
+        <v>3867046.507201617</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.538027780695722e-07</v>
+        <v>9.707946072809546e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.54282407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>3233254.214082875</v>
+        <v>3497981.015988009</v>
       </c>
     </row>
     <row r="3">
@@ -11775,28 +11775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1806.578600511398</v>
+        <v>1971.072264750263</v>
       </c>
       <c r="AB3" t="n">
-        <v>2471.840541842561</v>
+        <v>2696.908030202474</v>
       </c>
       <c r="AC3" t="n">
-        <v>2235.931549779096</v>
+        <v>2439.518912934142</v>
       </c>
       <c r="AD3" t="n">
-        <v>1806578.600511398</v>
+        <v>1971072.264750263</v>
       </c>
       <c r="AE3" t="n">
-        <v>2471840.541842561</v>
+        <v>2696908.030202474</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.254260073128351e-07</v>
+        <v>1.225628191692205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.24768518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>2235931.549779096</v>
+        <v>2439518.912934143</v>
       </c>
     </row>
     <row r="4">
@@ -11881,28 +11881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1592.586183346974</v>
+        <v>1748.761293909295</v>
       </c>
       <c r="AB4" t="n">
-        <v>2179.046675999041</v>
+        <v>2392.732352230018</v>
       </c>
       <c r="AC4" t="n">
-        <v>1971.08151955291</v>
+        <v>2164.373334754133</v>
       </c>
       <c r="AD4" t="n">
-        <v>1592586.183346974</v>
+        <v>1748761.293909295</v>
       </c>
       <c r="AE4" t="n">
-        <v>2179046.675999041</v>
+        <v>2392732.352230018</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.883433294489822e-07</v>
+        <v>1.319050549447667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.46412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1971081.51955291</v>
+        <v>2164373.334754133</v>
       </c>
     </row>
     <row r="5">
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1483.108757033239</v>
+        <v>1631.135995628159</v>
       </c>
       <c r="AB5" t="n">
-        <v>2029.25483151341</v>
+        <v>2231.792229859846</v>
       </c>
       <c r="AC5" t="n">
-        <v>1835.585598470813</v>
+        <v>2018.79311178209</v>
       </c>
       <c r="AD5" t="n">
-        <v>1483108.757033239</v>
+        <v>1631135.995628159</v>
       </c>
       <c r="AE5" t="n">
-        <v>2029254.83151341</v>
+        <v>2231792.229859847</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.220970173921288e-07</v>
+        <v>1.369169483368079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.12731481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>1835585.598470813</v>
+        <v>2018793.11178209</v>
       </c>
     </row>
     <row r="6">
@@ -12093,28 +12093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1405.976754692783</v>
+        <v>1553.918652433131</v>
       </c>
       <c r="AB6" t="n">
-        <v>1923.719423087414</v>
+        <v>2126.140054311654</v>
       </c>
       <c r="AC6" t="n">
-        <v>1740.122341305119</v>
+        <v>1923.224231584457</v>
       </c>
       <c r="AD6" t="n">
-        <v>1405976.754692783</v>
+        <v>1553918.652433131</v>
       </c>
       <c r="AE6" t="n">
-        <v>1923719.423087415</v>
+        <v>2126140.054311654</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.419685915543461e-07</v>
+        <v>1.398675655079101e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.38657407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>1740122.341305119</v>
+        <v>1923224.231584457</v>
       </c>
     </row>
     <row r="7">
@@ -12199,28 +12199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1341.425835929574</v>
+        <v>1489.452985015943</v>
       </c>
       <c r="AB7" t="n">
-        <v>1835.398008250042</v>
+        <v>2037.935284126931</v>
       </c>
       <c r="AC7" t="n">
-        <v>1660.230198339941</v>
+        <v>1843.437600869991</v>
       </c>
       <c r="AD7" t="n">
-        <v>1341425.835929574</v>
+        <v>1489452.985015943</v>
       </c>
       <c r="AE7" t="n">
-        <v>1835398.008250042</v>
+        <v>2037935.284126931</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.566903493139607e-07</v>
+        <v>1.420535156938253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.8599537037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1660230.198339941</v>
+        <v>1843437.600869991</v>
       </c>
     </row>
     <row r="8">
@@ -12305,28 +12305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1295.079725658367</v>
+        <v>1435.044343631906</v>
       </c>
       <c r="AB8" t="n">
-        <v>1771.985215530896</v>
+        <v>1963.490980645442</v>
       </c>
       <c r="AC8" t="n">
-        <v>1602.869433557497</v>
+        <v>1776.09815722954</v>
       </c>
       <c r="AD8" t="n">
-        <v>1295079.725658367</v>
+        <v>1435044.343631906</v>
       </c>
       <c r="AE8" t="n">
-        <v>1771985.215530896</v>
+        <v>1963490.980645442</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.653106941617957e-07</v>
+        <v>1.433335017342471e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.55902777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1602869.433557497</v>
+        <v>1776098.157229539</v>
       </c>
     </row>
     <row r="9">
@@ -12411,28 +12411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283.381708504451</v>
+        <v>1423.175734277398</v>
       </c>
       <c r="AB9" t="n">
-        <v>1755.979472380815</v>
+        <v>1947.251825720513</v>
       </c>
       <c r="AC9" t="n">
-        <v>1588.391256069457</v>
+        <v>1761.408844458849</v>
       </c>
       <c r="AD9" t="n">
-        <v>1283381.708504451</v>
+        <v>1423175.734277398</v>
       </c>
       <c r="AE9" t="n">
-        <v>1755979.472380815</v>
+        <v>1947251.825720513</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.679415786283427e-07</v>
+        <v>1.437241468245057e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.46643518518518</v>
       </c>
       <c r="AH9" t="n">
-        <v>1588391.256069457</v>
+        <v>1761408.844458849</v>
       </c>
     </row>
   </sheetData>
@@ -12708,28 +12708,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3043.493823977592</v>
+        <v>3277.275972819986</v>
       </c>
       <c r="AB2" t="n">
-        <v>4164.242519437632</v>
+        <v>4484.113569224311</v>
       </c>
       <c r="AC2" t="n">
-        <v>3766.813057933429</v>
+        <v>4056.156063670294</v>
       </c>
       <c r="AD2" t="n">
-        <v>3043493.823977592</v>
+        <v>3277275.972819986</v>
       </c>
       <c r="AE2" t="n">
-        <v>4164242.519437632</v>
+        <v>4484113.569224311</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.005591867376757e-07</v>
+        <v>8.830877394180832e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.84722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3766813.057933429</v>
+        <v>4056156.063670294</v>
       </c>
     </row>
     <row r="3">
@@ -12814,28 +12814,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2015.70588831525</v>
+        <v>2191.149176015263</v>
       </c>
       <c r="AB3" t="n">
-        <v>2757.977723060589</v>
+        <v>2998.026969303507</v>
       </c>
       <c r="AC3" t="n">
-        <v>2494.760200017732</v>
+        <v>2711.899483110346</v>
       </c>
       <c r="AD3" t="n">
-        <v>2015705.88831525</v>
+        <v>2191149.176015262</v>
       </c>
       <c r="AE3" t="n">
-        <v>2757977.723060589</v>
+        <v>2998026.969303507</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.824271559817061e-07</v>
+        <v>1.150514126989806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>2494760.200017732</v>
+        <v>2711899.483110346</v>
       </c>
     </row>
     <row r="4">
@@ -12920,28 +12920,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1761.410334423352</v>
+        <v>1920.051358534047</v>
       </c>
       <c r="AB4" t="n">
-        <v>2410.039327497634</v>
+        <v>2627.098975433923</v>
       </c>
       <c r="AC4" t="n">
-        <v>2180.0285565927</v>
+        <v>2376.372336375079</v>
       </c>
       <c r="AD4" t="n">
-        <v>1761410.334423352</v>
+        <v>1920051.358534047</v>
       </c>
       <c r="AE4" t="n">
-        <v>2410039.327497634</v>
+        <v>2627098.975433923</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.508744495934519e-07</v>
+        <v>1.251161935098826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.30324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>2180028.5565927</v>
+        <v>2376372.336375079</v>
       </c>
     </row>
     <row r="5">
@@ -13026,28 +13026,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1632.382830718853</v>
+        <v>1791.023765320997</v>
       </c>
       <c r="AB5" t="n">
-        <v>2233.498204637417</v>
+        <v>2450.557730104158</v>
       </c>
       <c r="AC5" t="n">
-        <v>2020.336270721239</v>
+        <v>2216.679939722392</v>
       </c>
       <c r="AD5" t="n">
-        <v>1632382.830718853</v>
+        <v>1791023.765320997</v>
       </c>
       <c r="AE5" t="n">
-        <v>2233498.204637417</v>
+        <v>2450557.730104158</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.867434640342228e-07</v>
+        <v>1.303905257617495e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.79282407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>2020336.270721239</v>
+        <v>2216679.939722392</v>
       </c>
     </row>
     <row r="6">
@@ -13132,28 +13132,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1546.354028314255</v>
+        <v>1696.721797649324</v>
       </c>
       <c r="AB6" t="n">
-        <v>2115.789801864544</v>
+        <v>2321.529617626582</v>
       </c>
       <c r="AC6" t="n">
-        <v>1913.861792704229</v>
+        <v>2099.966089207582</v>
       </c>
       <c r="AD6" t="n">
-        <v>1546354.028314255</v>
+        <v>1696721.797649324</v>
       </c>
       <c r="AE6" t="n">
-        <v>2115789.801864544</v>
+        <v>2321529.617626581</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.103270668010903e-07</v>
+        <v>1.338583588937109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.86689814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>1913861.792704229</v>
+        <v>2099966.089207582</v>
       </c>
     </row>
     <row r="7">
@@ -13238,28 +13238,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1491.171211805729</v>
+        <v>1641.368388940206</v>
       </c>
       <c r="AB7" t="n">
-        <v>2040.286237823533</v>
+        <v>2245.792641810723</v>
       </c>
       <c r="AC7" t="n">
-        <v>1845.564182845374</v>
+        <v>2031.457344066076</v>
       </c>
       <c r="AD7" t="n">
-        <v>1491171.211805729</v>
+        <v>1641368.388940206</v>
       </c>
       <c r="AE7" t="n">
-        <v>2040286.237823533</v>
+        <v>2245792.641810723</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.245320740490409e-07</v>
+        <v>1.359471235011016e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.3287037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1845564.182845374</v>
+        <v>2031457.344066076</v>
       </c>
     </row>
     <row r="8">
@@ -13344,28 +13344,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1434.031324699069</v>
+        <v>1584.313753179566</v>
       </c>
       <c r="AB8" t="n">
-        <v>1962.104923450292</v>
+        <v>2167.727972090132</v>
       </c>
       <c r="AC8" t="n">
-        <v>1774.844383387752</v>
+        <v>1960.843056859166</v>
       </c>
       <c r="AD8" t="n">
-        <v>1434031.324699069</v>
+        <v>1584313.753179566</v>
       </c>
       <c r="AE8" t="n">
-        <v>1962104.923450292</v>
+        <v>2167727.972090132</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.356108827906857e-07</v>
+        <v>1.375761986003021e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.92361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1774844.383387752</v>
+        <v>1960843.056859166</v>
       </c>
     </row>
     <row r="9">
@@ -13450,28 +13450,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1389.176438769127</v>
+        <v>1531.271042837121</v>
       </c>
       <c r="AB9" t="n">
-        <v>1900.73248966304</v>
+        <v>2095.152595720373</v>
       </c>
       <c r="AC9" t="n">
-        <v>1719.329248544403</v>
+        <v>1895.194172549956</v>
       </c>
       <c r="AD9" t="n">
-        <v>1389176.438769127</v>
+        <v>1531271.042837121</v>
       </c>
       <c r="AE9" t="n">
-        <v>1900732.48966304</v>
+        <v>2095152.595720373</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.444410224313035e-07</v>
+        <v>1.388746198427342e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.60532407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>1719329.248544403</v>
+        <v>1895194.172549956</v>
       </c>
     </row>
     <row r="10">
@@ -13556,28 +13556,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1359.16821363429</v>
+        <v>1501.092225501692</v>
       </c>
       <c r="AB10" t="n">
-        <v>1859.673912164097</v>
+        <v>2053.860606446583</v>
       </c>
       <c r="AC10" t="n">
-        <v>1682.189244055884</v>
+        <v>1857.843032778787</v>
       </c>
       <c r="AD10" t="n">
-        <v>1359168.21363429</v>
+        <v>1501092.225501692</v>
       </c>
       <c r="AE10" t="n">
-        <v>1859673.912164097</v>
+        <v>2053860.606446584</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.494319709238268e-07</v>
+        <v>1.396085101101958e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.43171296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>1682189.244055884</v>
+        <v>1857843.032778787</v>
       </c>
     </row>
     <row r="11">
@@ -13662,28 +13662,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1355.110064166536</v>
+        <v>1497.034076033938</v>
       </c>
       <c r="AB11" t="n">
-        <v>1854.121373029397</v>
+        <v>2048.308067311883</v>
       </c>
       <c r="AC11" t="n">
-        <v>1677.166631463162</v>
+        <v>1852.820420186064</v>
       </c>
       <c r="AD11" t="n">
-        <v>1355110.064166536</v>
+        <v>1497034.076033938</v>
       </c>
       <c r="AE11" t="n">
-        <v>1854121.373029397</v>
+        <v>2048308.067311883</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.504740370925953e-07</v>
+        <v>1.397617399462592e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.3912037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1677166.631463162</v>
+        <v>1852820.420186064</v>
       </c>
     </row>
     <row r="12">
@@ -13768,28 +13768,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1360.261525109665</v>
+        <v>1502.185536977067</v>
       </c>
       <c r="AB12" t="n">
-        <v>1861.169829158203</v>
+        <v>2055.356523440689</v>
       </c>
       <c r="AC12" t="n">
-        <v>1683.542392831605</v>
+        <v>1859.196181554507</v>
       </c>
       <c r="AD12" t="n">
-        <v>1360261.525109665</v>
+        <v>1502185.536977067</v>
       </c>
       <c r="AE12" t="n">
-        <v>1861169.829158203</v>
+        <v>2055356.523440689</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.504740370925953e-07</v>
+        <v>1.397617399462592e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.3912037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1683542.392831605</v>
+        <v>1859196.181554507</v>
       </c>
     </row>
   </sheetData>
@@ -14065,28 +14065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4089.552763815932</v>
+        <v>4355.338682218972</v>
       </c>
       <c r="AB2" t="n">
-        <v>5595.506509787932</v>
+        <v>5959.166528994157</v>
       </c>
       <c r="AC2" t="n">
-        <v>5061.47922183627</v>
+        <v>5390.432039209484</v>
       </c>
       <c r="AD2" t="n">
-        <v>4089552.763815932</v>
+        <v>4355338.682218973</v>
       </c>
       <c r="AE2" t="n">
-        <v>5595506.509787932</v>
+        <v>5959166.528994157</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.071482225795059e-07</v>
+        <v>7.337281052322758e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.40509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>5061479.22183627</v>
+        <v>5390432.039209484</v>
       </c>
     </row>
     <row r="3">
@@ -14171,28 +14171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2467.708693184489</v>
+        <v>2656.341995567139</v>
       </c>
       <c r="AB3" t="n">
-        <v>3376.427901639264</v>
+        <v>3634.52430787319</v>
       </c>
       <c r="AC3" t="n">
-        <v>3054.186361553008</v>
+        <v>3287.650409016539</v>
       </c>
       <c r="AD3" t="n">
-        <v>2467708.693184489</v>
+        <v>2656341.995567139</v>
       </c>
       <c r="AE3" t="n">
-        <v>3376427.901639264</v>
+        <v>3634524.307873189</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.054548240182147e-07</v>
+        <v>1.020632644084061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.42592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>3054186.361553008</v>
+        <v>3287650.409016539</v>
       </c>
     </row>
     <row r="4">
@@ -14277,28 +14277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2107.682808166129</v>
+        <v>2279.152120132122</v>
       </c>
       <c r="AB4" t="n">
-        <v>2883.824602535883</v>
+        <v>3118.436479860089</v>
       </c>
       <c r="AC4" t="n">
-        <v>2608.596429943108</v>
+        <v>2820.817278975213</v>
       </c>
       <c r="AD4" t="n">
-        <v>2107682.808166129</v>
+        <v>2279152.120132123</v>
       </c>
       <c r="AE4" t="n">
-        <v>2883824.602535883</v>
+        <v>3118436.479860089</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.82744636645154e-07</v>
+        <v>1.132453420038041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.13773148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>2608596.429943108</v>
+        <v>2820817.278975213</v>
       </c>
     </row>
     <row r="5">
@@ -14383,28 +14383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1936.587191900396</v>
+        <v>2099.474508658058</v>
       </c>
       <c r="AB5" t="n">
-        <v>2649.724032155244</v>
+        <v>2872.593645024325</v>
       </c>
       <c r="AC5" t="n">
-        <v>2396.838089437383</v>
+        <v>2598.437339253705</v>
       </c>
       <c r="AD5" t="n">
-        <v>1936587.191900396</v>
+        <v>2099474.508658058</v>
       </c>
       <c r="AE5" t="n">
-        <v>2649724.032155244</v>
+        <v>2872593.645024325</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.252540335899706e-07</v>
+        <v>1.193954846812729e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.1238425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>2396838.089437383</v>
+        <v>2598437.339253705</v>
       </c>
     </row>
     <row r="6">
@@ -14489,28 +14489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1840.527505955375</v>
+        <v>1994.918168359279</v>
       </c>
       <c r="AB6" t="n">
-        <v>2518.290931991015</v>
+        <v>2729.535047527349</v>
       </c>
       <c r="AC6" t="n">
-        <v>2277.948779885313</v>
+        <v>2469.032053517838</v>
       </c>
       <c r="AD6" t="n">
-        <v>1840527.505955375</v>
+        <v>1994918.168359279</v>
       </c>
       <c r="AE6" t="n">
-        <v>2518290.931991015</v>
+        <v>2729535.047527349</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.503467535798126e-07</v>
+        <v>1.230258304211487e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.03009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>2277948.779885313</v>
+        <v>2469032.053517838</v>
       </c>
     </row>
     <row r="7">
@@ -14595,28 +14595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1768.16473382328</v>
+        <v>1922.470055372613</v>
       </c>
       <c r="AB7" t="n">
-        <v>2419.280994739687</v>
+        <v>2630.408343153823</v>
       </c>
       <c r="AC7" t="n">
-        <v>2188.388212083932</v>
+        <v>2379.365862684519</v>
       </c>
       <c r="AD7" t="n">
-        <v>1768164.73382328</v>
+        <v>1922470.055372613</v>
       </c>
       <c r="AE7" t="n">
-        <v>2419280.994739687</v>
+        <v>2630408.343153823</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.67816368762614e-07</v>
+        <v>1.255532863159989e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.30092592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>2188388.212083932</v>
+        <v>2379365.862684519</v>
       </c>
     </row>
     <row r="8">
@@ -14701,28 +14701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1706.967651486374</v>
+        <v>1861.358224381728</v>
       </c>
       <c r="AB8" t="n">
-        <v>2335.548446861603</v>
+        <v>2546.792439928389</v>
       </c>
       <c r="AC8" t="n">
-        <v>2112.646981055964</v>
+        <v>2303.730143907263</v>
       </c>
       <c r="AD8" t="n">
-        <v>1706967.651486374</v>
+        <v>1861358.224381728</v>
       </c>
       <c r="AE8" t="n">
-        <v>2335548.446861603</v>
+        <v>2546792.439928389</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.817391226810283e-07</v>
+        <v>1.27567592074622e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.74537037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>2112646.981055964</v>
+        <v>2303730.143907262</v>
       </c>
     </row>
     <row r="9">
@@ -14807,28 +14807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1666.343099855044</v>
+        <v>1820.563080549805</v>
       </c>
       <c r="AB9" t="n">
-        <v>2279.964143090888</v>
+        <v>2490.974724382827</v>
       </c>
       <c r="AC9" t="n">
-        <v>2062.367565224066</v>
+        <v>2253.239592792713</v>
       </c>
       <c r="AD9" t="n">
-        <v>1666343.099855044</v>
+        <v>1820563.080549805</v>
       </c>
       <c r="AE9" t="n">
-        <v>2279964.143090888</v>
+        <v>2490974.724382828</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.910562507785223e-07</v>
+        <v>1.289155685518754e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>35</v>
+        <v>34.38078703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>2062367.565224066</v>
+        <v>2253239.592792713</v>
       </c>
     </row>
     <row r="10">
@@ -14913,28 +14913,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1627.515273486033</v>
+        <v>1773.323940681609</v>
       </c>
       <c r="AB10" t="n">
-        <v>2226.838198090004</v>
+        <v>2426.340049171395</v>
       </c>
       <c r="AC10" t="n">
-        <v>2014.311885851333</v>
+        <v>2194.773560268123</v>
       </c>
       <c r="AD10" t="n">
-        <v>1627515.273486034</v>
+        <v>1773323.940681609</v>
       </c>
       <c r="AE10" t="n">
-        <v>2226838.198090003</v>
+        <v>2426340.049171395</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.992616760916564e-07</v>
+        <v>1.301027069267293e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>34.06828703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>2014311.885851333</v>
+        <v>2194773.560268123</v>
       </c>
     </row>
     <row r="11">
@@ -15019,28 +15019,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1580.078576811296</v>
+        <v>1734.383808852078</v>
       </c>
       <c r="AB11" t="n">
-        <v>2161.93321694027</v>
+        <v>2373.060442884859</v>
       </c>
       <c r="AC11" t="n">
-        <v>1955.601345007818</v>
+        <v>2146.578884827178</v>
       </c>
       <c r="AD11" t="n">
-        <v>1580078.576811296</v>
+        <v>1734383.808852078</v>
       </c>
       <c r="AE11" t="n">
-        <v>2161933.21694027</v>
+        <v>2373060.442884859</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.0524369583607e-07</v>
+        <v>1.309681690967841e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.84259259259259</v>
       </c>
       <c r="AH11" t="n">
-        <v>1955601.345007817</v>
+        <v>2146578.884827178</v>
       </c>
     </row>
     <row r="12">
@@ -15125,28 +15125,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1552.940384544191</v>
+        <v>1698.834303085787</v>
       </c>
       <c r="AB12" t="n">
-        <v>2124.801545027872</v>
+        <v>2324.420040761912</v>
       </c>
       <c r="AC12" t="n">
-        <v>1922.01346774811</v>
+        <v>2102.580654415611</v>
       </c>
       <c r="AD12" t="n">
-        <v>1552940.384544191</v>
+        <v>1698834.303085787</v>
       </c>
       <c r="AE12" t="n">
-        <v>2124801.545027872</v>
+        <v>2324420.040761912</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.105375186187373e-07</v>
+        <v>1.317340648224963e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.64583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1922013.46774811</v>
+        <v>2102580.654415611</v>
       </c>
     </row>
     <row r="13">
@@ -15231,28 +15231,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1519.250442258948</v>
+        <v>1664.973768599952</v>
       </c>
       <c r="AB13" t="n">
-        <v>2078.705479697846</v>
+        <v>2278.09056365704</v>
       </c>
       <c r="AC13" t="n">
-        <v>1880.316746196948</v>
+        <v>2060.672797581798</v>
       </c>
       <c r="AD13" t="n">
-        <v>1519250.442258948</v>
+        <v>1664973.768599952</v>
       </c>
       <c r="AE13" t="n">
-        <v>2078705.479697846</v>
+        <v>2278090.56365704</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.156725267179244e-07</v>
+        <v>1.324769836764371e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>33.45486111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1880316.746196948</v>
+        <v>2060672.797581799</v>
       </c>
     </row>
     <row r="14">
@@ -15337,28 +15337,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1495.473962466004</v>
+        <v>1641.197288807007</v>
       </c>
       <c r="AB14" t="n">
-        <v>2046.173451100882</v>
+        <v>2245.558535060075</v>
       </c>
       <c r="AC14" t="n">
-        <v>1850.889528750289</v>
+        <v>2031.24558013514</v>
       </c>
       <c r="AD14" t="n">
-        <v>1495473.962466004</v>
+        <v>1641197.288807007</v>
       </c>
       <c r="AE14" t="n">
-        <v>2046173.451100882</v>
+        <v>2245558.535060076</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.185841292483913e-07</v>
+        <v>1.328982263255788e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>34</v>
+        <v>33.35069444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1850889.528750289</v>
+        <v>2031245.58013514</v>
       </c>
     </row>
     <row r="15">
@@ -15443,28 +15443,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1490.563899425712</v>
+        <v>1636.287225766716</v>
       </c>
       <c r="AB15" t="n">
-        <v>2039.455286232462</v>
+        <v>2238.840370191655</v>
       </c>
       <c r="AC15" t="n">
-        <v>1844.812536107907</v>
+        <v>2025.168587492758</v>
       </c>
       <c r="AD15" t="n">
-        <v>1490563.899425712</v>
+        <v>1636287.225766716</v>
       </c>
       <c r="AE15" t="n">
-        <v>2039455.286232462</v>
+        <v>2238840.370191656</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.192193879823113e-07</v>
+        <v>1.329901338126643e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>34</v>
+        <v>33.3275462962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1844812.536107907</v>
+        <v>2025168.587492758</v>
       </c>
     </row>
     <row r="16">
@@ -15549,28 +15549,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1496.460664630585</v>
+        <v>1642.183990971589</v>
       </c>
       <c r="AB16" t="n">
-        <v>2047.52350053269</v>
+        <v>2246.908584491884</v>
       </c>
       <c r="AC16" t="n">
-        <v>1852.110731359131</v>
+        <v>2032.466782743982</v>
       </c>
       <c r="AD16" t="n">
-        <v>1496460.664630585</v>
+        <v>1642183.990971589</v>
       </c>
       <c r="AE16" t="n">
-        <v>2047523.50053269</v>
+        <v>2246908.584491883</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.191664497544845e-07</v>
+        <v>1.329824748554072e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>34</v>
+        <v>33.3275462962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1852110.731359131</v>
+        <v>2032466.782743982</v>
       </c>
     </row>
   </sheetData>
@@ -15846,28 +15846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2217.804490494486</v>
+        <v>2411.847979036097</v>
       </c>
       <c r="AB2" t="n">
-        <v>3034.497946523464</v>
+        <v>3299.996808140649</v>
       </c>
       <c r="AC2" t="n">
-        <v>2744.889721451767</v>
+        <v>2985.04974434619</v>
       </c>
       <c r="AD2" t="n">
-        <v>2217804.490494486</v>
+        <v>2411847.979036097</v>
       </c>
       <c r="AE2" t="n">
-        <v>3034497.946523464</v>
+        <v>3299996.808140649</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.13482924051679e-07</v>
+        <v>1.071426329424975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.4525462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2744889.721451767</v>
+        <v>2985049.74434619</v>
       </c>
     </row>
     <row r="3">
@@ -15952,28 +15952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1594.902039786274</v>
+        <v>1756.647542741109</v>
       </c>
       <c r="AB3" t="n">
-        <v>2182.215332947667</v>
+        <v>2403.522665798449</v>
       </c>
       <c r="AC3" t="n">
-        <v>1973.947764329596</v>
+        <v>2174.133835939893</v>
       </c>
       <c r="AD3" t="n">
-        <v>1594902.039786274</v>
+        <v>1756647.542741109</v>
       </c>
       <c r="AE3" t="n">
-        <v>2182215.332947667</v>
+        <v>2403522.665798449</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.72524670727832e-07</v>
+        <v>1.310256873397776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.98611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1973947.764329596</v>
+        <v>2174133.835939893</v>
       </c>
     </row>
     <row r="4">
@@ -16058,28 +16058,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1419.591564293792</v>
+        <v>1565.316130491372</v>
       </c>
       <c r="AB4" t="n">
-        <v>1942.347806226523</v>
+        <v>2141.734586612184</v>
       </c>
       <c r="AC4" t="n">
-        <v>1756.972857702531</v>
+        <v>1937.330443609288</v>
       </c>
       <c r="AD4" t="n">
-        <v>1419591.564293792</v>
+        <v>1565316.130491372</v>
       </c>
       <c r="AE4" t="n">
-        <v>1942347.806226523</v>
+        <v>2141734.586612184</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.305402592704833e-07</v>
+        <v>1.397377990086449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.61921296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1756972.857702531</v>
+        <v>1937330.443609288</v>
       </c>
     </row>
     <row r="5">
@@ -16164,28 +16164,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1323.19211591624</v>
+        <v>1468.831341259249</v>
       </c>
       <c r="AB5" t="n">
-        <v>1810.449828112845</v>
+        <v>2009.719841376308</v>
       </c>
       <c r="AC5" t="n">
-        <v>1637.663037500047</v>
+        <v>1817.915000374865</v>
       </c>
       <c r="AD5" t="n">
-        <v>1323192.11591624</v>
+        <v>1468831.341259249</v>
       </c>
       <c r="AE5" t="n">
-        <v>1810449.828112845</v>
+        <v>2009719.841376308</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.600921286564734e-07</v>
+        <v>1.441755577659357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.51967592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1637663.037500047</v>
+        <v>1817915.000374865</v>
       </c>
     </row>
     <row r="6">
@@ -16270,28 +16270,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1243.585665188666</v>
+        <v>1389.139549677103</v>
       </c>
       <c r="AB6" t="n">
-        <v>1701.528770238636</v>
+        <v>1900.682016379901</v>
       </c>
       <c r="AC6" t="n">
-        <v>1539.137252517688</v>
+        <v>1719.283592360567</v>
       </c>
       <c r="AD6" t="n">
-        <v>1243585.665188666</v>
+        <v>1389139.549677103</v>
       </c>
       <c r="AE6" t="n">
-        <v>1701528.770238636</v>
+        <v>1900682.016379901</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.793352063961879e-07</v>
+        <v>1.470652611427762e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.84259259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1539137.252517688</v>
+        <v>1719283.592360567</v>
       </c>
     </row>
     <row r="7">
@@ -16376,28 +16376,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1211.493530279048</v>
+        <v>1349.12228724343</v>
       </c>
       <c r="AB7" t="n">
-        <v>1657.618895450228</v>
+        <v>1845.928632481129</v>
       </c>
       <c r="AC7" t="n">
-        <v>1499.418074551189</v>
+        <v>1669.755794574236</v>
       </c>
       <c r="AD7" t="n">
-        <v>1211493.530279048</v>
+        <v>1349122.28724343</v>
       </c>
       <c r="AE7" t="n">
-        <v>1657618.895450228</v>
+        <v>1845928.632481129</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.872386133249994e-07</v>
+        <v>1.482521036011215e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.57060185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>1499418.074551189</v>
+        <v>1669755.794574236</v>
       </c>
     </row>
     <row r="8">
@@ -16482,28 +16482,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1215.719429510892</v>
+        <v>1353.348186475274</v>
       </c>
       <c r="AB8" t="n">
-        <v>1663.400957212752</v>
+        <v>1851.710694243654</v>
       </c>
       <c r="AC8" t="n">
-        <v>1504.648304454273</v>
+        <v>1674.986024477321</v>
       </c>
       <c r="AD8" t="n">
-        <v>1215719.429510892</v>
+        <v>1353348.186475274</v>
       </c>
       <c r="AE8" t="n">
-        <v>1663400.957212752</v>
+        <v>1851710.694243654</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.871813422602978e-07</v>
+        <v>1.482435032934523e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.57060185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>1504648.304454273</v>
+        <v>1674986.024477321</v>
       </c>
     </row>
   </sheetData>
@@ -16779,28 +16779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1687.085181945936</v>
+        <v>1852.021962433605</v>
       </c>
       <c r="AB2" t="n">
-        <v>2308.344374883726</v>
+        <v>2534.01815444416</v>
       </c>
       <c r="AC2" t="n">
-        <v>2088.039227526501</v>
+        <v>2292.175018300826</v>
       </c>
       <c r="AD2" t="n">
-        <v>1687085.181945936</v>
+        <v>1852021.962433605</v>
       </c>
       <c r="AE2" t="n">
-        <v>2308344.374883726</v>
+        <v>2534018.15444416</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.177845273167443e-07</v>
+        <v>1.254274360057836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.21643518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>2088039.227526501</v>
+        <v>2292175.018300826</v>
       </c>
     </row>
     <row r="3">
@@ -16885,28 +16885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1286.673249599533</v>
+        <v>1428.03545411096</v>
       </c>
       <c r="AB3" t="n">
-        <v>1760.483104119649</v>
+        <v>1953.9011087925</v>
       </c>
       <c r="AC3" t="n">
-        <v>1592.465067516024</v>
+        <v>1767.423529286773</v>
       </c>
       <c r="AD3" t="n">
-        <v>1286673.249599533</v>
+        <v>1428035.45411096</v>
       </c>
       <c r="AE3" t="n">
-        <v>1760483.104119649</v>
+        <v>1953901.1087925</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.551160112591973e-07</v>
+        <v>1.464906077073676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.14583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1592465.067516024</v>
+        <v>1767423.529286773</v>
       </c>
     </row>
     <row r="4">
@@ -16991,28 +16991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1146.648260093928</v>
+        <v>1287.839782896212</v>
       </c>
       <c r="AB4" t="n">
-        <v>1568.894736011529</v>
+        <v>1762.079206439984</v>
       </c>
       <c r="AC4" t="n">
-        <v>1419.161624364179</v>
+        <v>1593.90884007105</v>
       </c>
       <c r="AD4" t="n">
-        <v>1146648.260093929</v>
+        <v>1287839.782896213</v>
       </c>
       <c r="AE4" t="n">
-        <v>1568894.736011529</v>
+        <v>1762079.206439984</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.003856159991163e-06</v>
+        <v>1.53966112173134e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.39236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1419161.62436418</v>
+        <v>1593908.84007105</v>
       </c>
     </row>
     <row r="5">
@@ -17097,28 +17097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1091.787094887935</v>
+        <v>1233.063869036239</v>
       </c>
       <c r="AB5" t="n">
-        <v>1493.831269472896</v>
+        <v>1687.132384554</v>
       </c>
       <c r="AC5" t="n">
-        <v>1351.262109719757</v>
+        <v>1526.11483767734</v>
       </c>
       <c r="AD5" t="n">
-        <v>1091787.094887935</v>
+        <v>1233063.869036239</v>
       </c>
       <c r="AE5" t="n">
-        <v>1493831.269472896</v>
+        <v>1687132.384554</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.018830183653002e-06</v>
+        <v>1.562627481840365e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.88310185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1351262.109719757</v>
+        <v>1526114.83767734</v>
       </c>
     </row>
     <row r="6">
@@ -17203,28 +17203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1098.951356150625</v>
+        <v>1240.22813029893</v>
       </c>
       <c r="AB6" t="n">
-        <v>1503.63372779741</v>
+        <v>1696.934842878514</v>
       </c>
       <c r="AC6" t="n">
-        <v>1360.129035179616</v>
+        <v>1534.981763137198</v>
       </c>
       <c r="AD6" t="n">
-        <v>1098951.356150625</v>
+        <v>1240228.13029893</v>
       </c>
       <c r="AE6" t="n">
-        <v>1503633.72779741</v>
+        <v>1696934.842878514</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.017994979145968e-06</v>
+        <v>1.561346489643049e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.91203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1360129.035179615</v>
+        <v>1534981.763137198</v>
       </c>
     </row>
   </sheetData>
@@ -31649,28 +31649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1347.103038063476</v>
+        <v>1500.468239865304</v>
       </c>
       <c r="AB2" t="n">
-        <v>1843.16580667013</v>
+        <v>2053.006841770574</v>
       </c>
       <c r="AC2" t="n">
-        <v>1667.256648980989</v>
+        <v>1857.07075020519</v>
       </c>
       <c r="AD2" t="n">
-        <v>1347103.038063476</v>
+        <v>1500468.239865304</v>
       </c>
       <c r="AE2" t="n">
-        <v>1843165.80667013</v>
+        <v>2053006.841770574</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.036002911414408e-07</v>
+        <v>1.411857631062447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.52546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1667256.648980989</v>
+        <v>1857070.75020519</v>
       </c>
     </row>
     <row r="3">
@@ -31755,28 +31755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1053.444031030001</v>
+        <v>1191.387371797075</v>
       </c>
       <c r="AB3" t="n">
-        <v>1441.36859792588</v>
+        <v>1630.108762394082</v>
       </c>
       <c r="AC3" t="n">
-        <v>1303.806401913366</v>
+        <v>1474.533469983208</v>
       </c>
       <c r="AD3" t="n">
-        <v>1053444.031030001</v>
+        <v>1191387.371797075</v>
       </c>
       <c r="AE3" t="n">
-        <v>1441368.59792588</v>
+        <v>1630108.762394082</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.022274199068295e-06</v>
+        <v>1.597283271311941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.93634259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1303806.401913366</v>
+        <v>1474533.469983208</v>
       </c>
     </row>
     <row r="4">
@@ -31861,28 +31861,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1014.136834955474</v>
+        <v>1151.909583521956</v>
       </c>
       <c r="AB4" t="n">
-        <v>1387.586758145608</v>
+        <v>1576.093510838964</v>
       </c>
       <c r="AC4" t="n">
-        <v>1255.157425438437</v>
+        <v>1425.673358225628</v>
       </c>
       <c r="AD4" t="n">
-        <v>1014136.834955474</v>
+        <v>1151909.583521956</v>
       </c>
       <c r="AE4" t="n">
-        <v>1387586.758145608</v>
+        <v>1576093.510838964</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.039368672545018e-06</v>
+        <v>1.623993048924582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.35763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1255157.425438437</v>
+        <v>1425673.358225628</v>
       </c>
     </row>
   </sheetData>
@@ -32158,28 +32158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>853.6229609172243</v>
+        <v>991.9103948861898</v>
       </c>
       <c r="AB2" t="n">
-        <v>1167.964594314131</v>
+        <v>1357.175562281482</v>
       </c>
       <c r="AC2" t="n">
-        <v>1056.495692681393</v>
+        <v>1227.648631425202</v>
       </c>
       <c r="AD2" t="n">
-        <v>853622.9609172243</v>
+        <v>991910.3948861898</v>
       </c>
       <c r="AE2" t="n">
-        <v>1167964.594314131</v>
+        <v>1357175.562281482</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.054886767326881e-06</v>
+        <v>1.719123787831015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.33680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1056495.692681393</v>
+        <v>1227648.631425202</v>
       </c>
     </row>
     <row r="3">
@@ -32264,28 +32264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>862.2684646639296</v>
+        <v>1000.555898632895</v>
       </c>
       <c r="AB3" t="n">
-        <v>1179.793753953079</v>
+        <v>1369.004721920431</v>
       </c>
       <c r="AC3" t="n">
-        <v>1067.19589392673</v>
+        <v>1238.348832670539</v>
       </c>
       <c r="AD3" t="n">
-        <v>862268.4646639297</v>
+        <v>1000555.898632895</v>
       </c>
       <c r="AE3" t="n">
-        <v>1179793.753953079</v>
+        <v>1369004.721920431</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.055151714398921e-06</v>
+        <v>1.719555565750852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.33101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>1067195.89392673</v>
+        <v>1238348.832670539</v>
       </c>
     </row>
   </sheetData>
@@ -32561,28 +32561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2829.947879396495</v>
+        <v>3045.504373815655</v>
       </c>
       <c r="AB2" t="n">
-        <v>3872.059537079581</v>
+        <v>4166.993442425266</v>
       </c>
       <c r="AC2" t="n">
-        <v>3502.515609330252</v>
+        <v>3769.301436692068</v>
       </c>
       <c r="AD2" t="n">
-        <v>2829947.879396495</v>
+        <v>3045504.373815655</v>
       </c>
       <c r="AE2" t="n">
-        <v>3872059.537079581</v>
+        <v>4166993.442425266</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.261082608065395e-07</v>
+        <v>9.250003262225694e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.19791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3502515.609330252</v>
+        <v>3769301.436692068</v>
       </c>
     </row>
     <row r="3">
@@ -32667,28 +32667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1906.913389892791</v>
+        <v>2080.983816607292</v>
       </c>
       <c r="AB3" t="n">
-        <v>2609.123027132686</v>
+        <v>2847.293864408706</v>
       </c>
       <c r="AC3" t="n">
-        <v>2360.11198735031</v>
+        <v>2575.552134191576</v>
       </c>
       <c r="AD3" t="n">
-        <v>1906913.38989279</v>
+        <v>2080983.816607293</v>
       </c>
       <c r="AE3" t="n">
-        <v>2609123.027132686</v>
+        <v>2847293.864408706</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.034769815977046e-07</v>
+        <v>1.18704146968578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.89583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2360111.98735031</v>
+        <v>2575552.134191576</v>
       </c>
     </row>
     <row r="4">
@@ -32773,28 +32773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1672.910046211498</v>
+        <v>1830.471422502129</v>
       </c>
       <c r="AB4" t="n">
-        <v>2288.949328809014</v>
+        <v>2504.531754967193</v>
       </c>
       <c r="AC4" t="n">
-        <v>2070.495217428042</v>
+        <v>2265.502759405518</v>
       </c>
       <c r="AD4" t="n">
-        <v>1672910.046211498</v>
+        <v>1830471.422502129</v>
       </c>
       <c r="AE4" t="n">
-        <v>2288949.328809015</v>
+        <v>2504531.754967193</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.695055622295188e-07</v>
+        <v>1.284590827277331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.86921296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>2070495.217428041</v>
+        <v>2265502.759405518</v>
       </c>
     </row>
     <row r="5">
@@ -32879,28 +32879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1556.993705320501</v>
+        <v>1706.17263462589</v>
       </c>
       <c r="AB5" t="n">
-        <v>2130.347477333911</v>
+        <v>2334.46066971942</v>
       </c>
       <c r="AC5" t="n">
-        <v>1927.030104058626</v>
+        <v>2111.663019837526</v>
       </c>
       <c r="AD5" t="n">
-        <v>1556993.705320501</v>
+        <v>1706172.63462589</v>
       </c>
       <c r="AE5" t="n">
-        <v>2130347.477333911</v>
+        <v>2334460.66971942</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.041816456821325e-07</v>
+        <v>1.335820607354773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.45138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1927030.104058625</v>
+        <v>2111663.019837526</v>
       </c>
     </row>
     <row r="6">
@@ -32985,28 +32985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1477.839455612081</v>
+        <v>1627.103636263491</v>
       </c>
       <c r="AB6" t="n">
-        <v>2022.04514084381</v>
+        <v>2226.274977881968</v>
       </c>
       <c r="AC6" t="n">
-        <v>1829.063990559855</v>
+        <v>2013.802418589468</v>
       </c>
       <c r="AD6" t="n">
-        <v>1477839.455612081</v>
+        <v>1627103.636263491</v>
       </c>
       <c r="AE6" t="n">
-        <v>2022045.14084381</v>
+        <v>2226274.977881968</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.256187771456493e-07</v>
+        <v>1.367491413888272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.63541666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1829063.990559855</v>
+        <v>2013802.418589468</v>
       </c>
     </row>
     <row r="7">
@@ -33091,28 +33091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1424.610475895212</v>
+        <v>1565.577550415952</v>
       </c>
       <c r="AB7" t="n">
-        <v>1949.21490249834</v>
+        <v>2142.092272886027</v>
       </c>
       <c r="AC7" t="n">
-        <v>1763.184567944196</v>
+        <v>1937.653992807171</v>
       </c>
       <c r="AD7" t="n">
-        <v>1424610.475895212</v>
+        <v>1565577.550415952</v>
       </c>
       <c r="AE7" t="n">
-        <v>1949214.90249834</v>
+        <v>2142092.272886027</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.394670532848721e-07</v>
+        <v>1.387950591235493e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.12037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1763184.567944196</v>
+        <v>1937653.992807171</v>
       </c>
     </row>
     <row r="8">
@@ -33197,28 +33197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1363.335418000435</v>
+        <v>1512.514257797274</v>
       </c>
       <c r="AB8" t="n">
-        <v>1865.375665021938</v>
+        <v>2069.488734937898</v>
       </c>
       <c r="AC8" t="n">
-        <v>1687.346829623433</v>
+        <v>1871.979634621106</v>
       </c>
       <c r="AD8" t="n">
-        <v>1363335.418000435</v>
+        <v>1512514.257797274</v>
       </c>
       <c r="AE8" t="n">
-        <v>1865375.665021938</v>
+        <v>2069488.734937898</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.508226397190347e-07</v>
+        <v>1.404727116660214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.71527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1687346.829623433</v>
+        <v>1871979.634621107</v>
       </c>
     </row>
     <row r="9">
@@ -33303,28 +33303,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1321.983399288103</v>
+        <v>1462.865132954271</v>
       </c>
       <c r="AB9" t="n">
-        <v>1808.796008697414</v>
+        <v>2001.556611962903</v>
       </c>
       <c r="AC9" t="n">
-        <v>1636.167056288475</v>
+        <v>1810.530858119512</v>
       </c>
       <c r="AD9" t="n">
-        <v>1321983.399288103</v>
+        <v>1462865.132954271</v>
       </c>
       <c r="AE9" t="n">
-        <v>1808796.008697414</v>
+        <v>2001556.611962903</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.580791364159875e-07</v>
+        <v>1.415447725590158e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.46064814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>1636167.056288475</v>
+        <v>1810530.858119512</v>
       </c>
     </row>
     <row r="10">
@@ -33409,28 +33409,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1320.804297760655</v>
+        <v>1461.686031426823</v>
       </c>
       <c r="AB10" t="n">
-        <v>1807.182709969271</v>
+        <v>1999.94331323476</v>
       </c>
       <c r="AC10" t="n">
-        <v>1634.707728526667</v>
+        <v>1809.071530357704</v>
       </c>
       <c r="AD10" t="n">
-        <v>1320804.297760655</v>
+        <v>1461686.031426823</v>
       </c>
       <c r="AE10" t="n">
-        <v>1807182.709969271</v>
+        <v>1999943.31323476</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.582453157296583e-07</v>
+        <v>1.415693235718325e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.45486111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1634707.728526667</v>
+        <v>1809071.530357704</v>
       </c>
     </row>
   </sheetData>
@@ -33706,28 +33706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3805.780273808271</v>
+        <v>4061.393825974307</v>
       </c>
       <c r="AB2" t="n">
-        <v>5207.236469800725</v>
+        <v>5556.978208748355</v>
       </c>
       <c r="AC2" t="n">
-        <v>4710.265129525033</v>
+        <v>5026.628007773103</v>
       </c>
       <c r="AD2" t="n">
-        <v>3805780.273808271</v>
+        <v>4061393.825974307</v>
       </c>
       <c r="AE2" t="n">
-        <v>5207236.469800725</v>
+        <v>5556978.208748355</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.288747551677678e-07</v>
+        <v>7.680155326029077e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.40856481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>4710265.129525034</v>
+        <v>5026628.007773102</v>
       </c>
     </row>
     <row r="3">
@@ -33812,28 +33812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2346.377608978969</v>
+        <v>2533.929890619944</v>
       </c>
       <c r="AB3" t="n">
-        <v>3210.417359479604</v>
+        <v>3467.034665443502</v>
       </c>
       <c r="AC3" t="n">
-        <v>2904.019632539813</v>
+        <v>3136.145742987158</v>
       </c>
       <c r="AD3" t="n">
-        <v>2346377.608978969</v>
+        <v>2533929.890619944</v>
       </c>
       <c r="AE3" t="n">
-        <v>3210417.359479604</v>
+        <v>3467034.665443501</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.241868998144031e-07</v>
+        <v>1.051641777434765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.65624999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>2904019.632539813</v>
+        <v>3136145.742987158</v>
       </c>
     </row>
     <row r="4">
@@ -33918,28 +33918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2016.517800305297</v>
+        <v>2187.012116264859</v>
       </c>
       <c r="AB4" t="n">
-        <v>2759.0886168644</v>
+        <v>2992.366461638638</v>
       </c>
       <c r="AC4" t="n">
-        <v>2495.765071676056</v>
+        <v>2706.779206352553</v>
       </c>
       <c r="AD4" t="n">
-        <v>2016517.800305297</v>
+        <v>2187012.116264859</v>
       </c>
       <c r="AE4" t="n">
-        <v>2759088.6168644</v>
+        <v>2992366.461638638</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.987567456934272e-07</v>
+        <v>1.1599297971205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.67476851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>2495765.071676056</v>
+        <v>2706779.206352552</v>
       </c>
     </row>
     <row r="5">
@@ -34024,28 +34024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1855.640467654697</v>
+        <v>2017.605800773552</v>
       </c>
       <c r="AB5" t="n">
-        <v>2538.969152924842</v>
+        <v>2760.577267104258</v>
       </c>
       <c r="AC5" t="n">
-        <v>2296.653500435281</v>
+        <v>2497.111647226356</v>
       </c>
       <c r="AD5" t="n">
-        <v>1855640.467654697</v>
+        <v>2017605.800773552</v>
       </c>
       <c r="AE5" t="n">
-        <v>2538969.152924842</v>
+        <v>2760577.267104258</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.397514784315021e-07</v>
+        <v>1.219461077806716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.78819444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>2296653.500435282</v>
+        <v>2497111.647226356</v>
       </c>
     </row>
     <row r="6">
@@ -34130,28 +34130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1764.288725258597</v>
+        <v>1926.168717522881</v>
       </c>
       <c r="AB6" t="n">
-        <v>2413.977668824058</v>
+        <v>2635.469015881276</v>
       </c>
       <c r="AC6" t="n">
-        <v>2183.591028150426</v>
+        <v>2383.943551909562</v>
       </c>
       <c r="AD6" t="n">
-        <v>1764288.725258597</v>
+        <v>1926168.717522881</v>
       </c>
       <c r="AE6" t="n">
-        <v>2413977.668824058</v>
+        <v>2635469.015881276</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.640387224364814e-07</v>
+        <v>1.254730261025764e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.75231481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>2183591.028150426</v>
+        <v>2383943.551909562</v>
       </c>
     </row>
     <row r="7">
@@ -34236,28 +34236,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1702.51165395774</v>
+        <v>1855.862752889867</v>
       </c>
       <c r="AB7" t="n">
-        <v>2329.451554458189</v>
+        <v>2539.273293390134</v>
       </c>
       <c r="AC7" t="n">
-        <v>2107.131967506489</v>
+        <v>2296.92861416143</v>
       </c>
       <c r="AD7" t="n">
-        <v>1702511.65395774</v>
+        <v>1855862.752889867</v>
       </c>
       <c r="AE7" t="n">
-        <v>2329451.554458189</v>
+        <v>2539273.293390134</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.813333753103568e-07</v>
+        <v>1.279845020065261e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.05208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2107131.967506489</v>
+        <v>2296928.61416143</v>
       </c>
     </row>
     <row r="8">
@@ -34342,28 +34342,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1643.812899447486</v>
+        <v>1797.249249725633</v>
       </c>
       <c r="AB8" t="n">
-        <v>2249.137328930975</v>
+        <v>2459.07571251557</v>
       </c>
       <c r="AC8" t="n">
-        <v>2034.482818941869</v>
+        <v>2224.384977847522</v>
       </c>
       <c r="AD8" t="n">
-        <v>1643812.899447486</v>
+        <v>1797249.249725634</v>
       </c>
       <c r="AE8" t="n">
-        <v>2249137.328930975</v>
+        <v>2459075.71251557</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.938773364997417e-07</v>
+        <v>1.298060971837737e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.56018518518518</v>
       </c>
       <c r="AH8" t="n">
-        <v>2034482.818941869</v>
+        <v>2224384.977847522</v>
       </c>
     </row>
     <row r="9">
@@ -34448,28 +34448,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1600.235659013922</v>
+        <v>1745.143115959914</v>
       </c>
       <c r="AB9" t="n">
-        <v>2189.513026077608</v>
+        <v>2387.781801536929</v>
       </c>
       <c r="AC9" t="n">
-        <v>1980.548975869593</v>
+        <v>2159.895257671051</v>
       </c>
       <c r="AD9" t="n">
-        <v>1600235.659013922</v>
+        <v>1745143.115959914</v>
       </c>
       <c r="AE9" t="n">
-        <v>2189513.026077608</v>
+        <v>2387781.801536929</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.037523697764913e-07</v>
+        <v>1.312401189190536e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>35</v>
+        <v>34.17824074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1980548.975869593</v>
+        <v>2159895.257671051</v>
       </c>
     </row>
     <row r="10">
@@ -34554,28 +34554,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1554.303418259524</v>
+        <v>1707.6544276831</v>
       </c>
       <c r="AB10" t="n">
-        <v>2126.666507889995</v>
+        <v>2336.488124352391</v>
       </c>
       <c r="AC10" t="n">
-        <v>1923.700441172163</v>
+        <v>2113.496977045877</v>
       </c>
       <c r="AD10" t="n">
-        <v>1554303.418259524</v>
+        <v>1707654.427683101</v>
       </c>
       <c r="AE10" t="n">
-        <v>2126666.507889994</v>
+        <v>2336488.124352391</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.119192891891546e-07</v>
+        <v>1.324260936514743e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.87152777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1923700.441172163</v>
+        <v>2113496.977045877</v>
       </c>
     </row>
     <row r="11">
@@ -34660,28 +34660,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1517.574307789132</v>
+        <v>1662.567016081145</v>
       </c>
       <c r="AB11" t="n">
-        <v>2076.412118570411</v>
+        <v>2274.797538682381</v>
       </c>
       <c r="AC11" t="n">
-        <v>1878.242260236761</v>
+        <v>2057.694054288932</v>
       </c>
       <c r="AD11" t="n">
-        <v>1517574.307789132</v>
+        <v>1662567.016081145</v>
       </c>
       <c r="AE11" t="n">
-        <v>2076412.118570411</v>
+        <v>2274797.538682382</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.180578233882154e-07</v>
+        <v>1.333175125679997e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.64583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1878242.260236762</v>
+        <v>2057694.054288932</v>
       </c>
     </row>
     <row r="12">
@@ -34766,28 +34766,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1483.113527737881</v>
+        <v>1627.935643829302</v>
       </c>
       <c r="AB12" t="n">
-        <v>2029.261359001971</v>
+        <v>2227.413367339094</v>
       </c>
       <c r="AC12" t="n">
-        <v>1835.591502985027</v>
+        <v>2014.832161754546</v>
       </c>
       <c r="AD12" t="n">
-        <v>1483113.527737882</v>
+        <v>1627935.643829302</v>
       </c>
       <c r="AE12" t="n">
-        <v>2029261.359001971</v>
+        <v>2227413.367339094</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.228618936309587e-07</v>
+        <v>1.340151447635413e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.47222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1835591.502985027</v>
+        <v>2014832.161754546</v>
       </c>
     </row>
     <row r="13">
@@ -34872,28 +34872,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1464.830238842908</v>
+        <v>1609.652354934329</v>
       </c>
       <c r="AB13" t="n">
-        <v>2004.245356534089</v>
+        <v>2202.397364871213</v>
       </c>
       <c r="AC13" t="n">
-        <v>1812.9629926825</v>
+        <v>1992.203651452019</v>
       </c>
       <c r="AD13" t="n">
-        <v>1464830.238842908</v>
+        <v>1609652.354934329</v>
       </c>
       <c r="AE13" t="n">
-        <v>2004245.356534089</v>
+        <v>2202397.364871213</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.253173073105828e-07</v>
+        <v>1.343717123301514e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>33.38541666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1812962.9926825</v>
+        <v>1992203.651452019</v>
       </c>
     </row>
     <row r="14">
@@ -34978,28 +34978,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1460.255998454681</v>
+        <v>1605.078114546101</v>
       </c>
       <c r="AB14" t="n">
-        <v>1997.986679033673</v>
+        <v>2196.138687370797</v>
       </c>
       <c r="AC14" t="n">
-        <v>1807.301634578615</v>
+        <v>1986.542293348134</v>
       </c>
       <c r="AD14" t="n">
-        <v>1460255.998454681</v>
+        <v>1605078.114546102</v>
       </c>
       <c r="AE14" t="n">
-        <v>1997986.679033673</v>
+        <v>2196138.687370797</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.259578500096152e-07</v>
+        <v>1.344647299562236e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>34</v>
+        <v>33.36226851851852</v>
       </c>
       <c r="AH14" t="n">
-        <v>1807301.634578615</v>
+        <v>1986542.293348134</v>
       </c>
     </row>
     <row r="15">
@@ -35084,28 +35084,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1465.904191153535</v>
+        <v>1610.726307244956</v>
       </c>
       <c r="AB15" t="n">
-        <v>2005.714785464921</v>
+        <v>2203.866793802044</v>
       </c>
       <c r="AC15" t="n">
-        <v>1814.29218137853</v>
+        <v>1993.532840148049</v>
       </c>
       <c r="AD15" t="n">
-        <v>1465904.191153535</v>
+        <v>1610726.307244956</v>
       </c>
       <c r="AE15" t="n">
-        <v>2005714.785464921</v>
+        <v>2203866.793802044</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.26171364242626e-07</v>
+        <v>1.344957358315811e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>34</v>
+        <v>33.35069444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>1814292.18137853</v>
+        <v>1993532.840148049</v>
       </c>
     </row>
   </sheetData>
@@ -35381,28 +35381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>788.8560084359983</v>
+        <v>931.0839469866489</v>
       </c>
       <c r="AB2" t="n">
-        <v>1079.347592613033</v>
+        <v>1273.950132791839</v>
       </c>
       <c r="AC2" t="n">
-        <v>976.3361732479051</v>
+        <v>1152.366120118426</v>
       </c>
       <c r="AD2" t="n">
-        <v>788856.0084359983</v>
+        <v>931083.946986649</v>
       </c>
       <c r="AE2" t="n">
-        <v>1079347.592613033</v>
+        <v>1273950.132791839</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.027933157047595e-06</v>
+        <v>1.71350332952581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.61111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>976336.1732479051</v>
+        <v>1152366.120118426</v>
       </c>
     </row>
   </sheetData>
@@ -35678,28 +35678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1855.588713775171</v>
+        <v>2038.096474509793</v>
       </c>
       <c r="AB2" t="n">
-        <v>2538.898340983654</v>
+        <v>2788.613510894908</v>
       </c>
       <c r="AC2" t="n">
-        <v>2296.589446686376</v>
+        <v>2522.472151258742</v>
       </c>
       <c r="AD2" t="n">
-        <v>1855588.713775171</v>
+        <v>2038096.474509793</v>
       </c>
       <c r="AE2" t="n">
-        <v>2538898.340983654</v>
+        <v>2788613.510894909</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.805858434579747e-07</v>
+        <v>1.187978763981021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.58217592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>2296589.446686375</v>
+        <v>2522472.151258742</v>
       </c>
     </row>
     <row r="3">
@@ -35784,28 +35784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1388.822461818253</v>
+        <v>1539.645399504183</v>
       </c>
       <c r="AB3" t="n">
-        <v>1900.248162782492</v>
+        <v>2106.610759962789</v>
       </c>
       <c r="AC3" t="n">
-        <v>1718.891145141578</v>
+        <v>1905.55878567871</v>
       </c>
       <c r="AD3" t="n">
-        <v>1388822.461818253</v>
+        <v>1539645.399504183</v>
       </c>
       <c r="AE3" t="n">
-        <v>1900248.162782493</v>
+        <v>2106610.759962788</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.256156126860832e-07</v>
+        <v>1.40870053011607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.75347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1718891.145141578</v>
+        <v>1905558.78567871</v>
       </c>
     </row>
     <row r="4">
@@ -35890,28 +35890,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1238.604261081337</v>
+        <v>1381.484657791451</v>
       </c>
       <c r="AB4" t="n">
-        <v>1694.712993374949</v>
+        <v>1890.208255591955</v>
       </c>
       <c r="AC4" t="n">
-        <v>1532.971963831868</v>
+        <v>1709.809432602207</v>
       </c>
       <c r="AD4" t="n">
-        <v>1238604.261081337</v>
+        <v>1381484.657791451</v>
       </c>
       <c r="AE4" t="n">
-        <v>1694712.993374949</v>
+        <v>1890208.255591955</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.774077597026878e-07</v>
+        <v>1.487523341613832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.80902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1532971.963831868</v>
+        <v>1709809.432602207</v>
       </c>
     </row>
     <row r="5">
@@ -35996,28 +35996,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1148.41315255328</v>
+        <v>1291.208208408822</v>
       </c>
       <c r="AB5" t="n">
-        <v>1571.309539735974</v>
+        <v>1766.688034830782</v>
       </c>
       <c r="AC5" t="n">
-        <v>1421.345962610362</v>
+        <v>1598.077808348762</v>
       </c>
       <c r="AD5" t="n">
-        <v>1148413.15255328</v>
+        <v>1291208.208408823</v>
       </c>
       <c r="AE5" t="n">
-        <v>1571309.539735974</v>
+        <v>1766688.034830783</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.003744742521574e-06</v>
+        <v>1.527605770162069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.89467592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1421345.962610362</v>
+        <v>1598077.808348762</v>
       </c>
     </row>
     <row r="6">
@@ -36102,28 +36102,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1134.128584550852</v>
+        <v>1276.923640406394</v>
       </c>
       <c r="AB6" t="n">
-        <v>1551.764763604388</v>
+        <v>1747.143258699197</v>
       </c>
       <c r="AC6" t="n">
-        <v>1403.666512481509</v>
+        <v>1580.398358219909</v>
       </c>
       <c r="AD6" t="n">
-        <v>1134128.584550852</v>
+        <v>1276923.640406394</v>
       </c>
       <c r="AE6" t="n">
-        <v>1551764.763604388</v>
+        <v>1747143.258699197</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.007624744454713e-06</v>
+        <v>1.533510770796408e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.76157407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>1403666.512481509</v>
+        <v>1580398.358219909</v>
       </c>
     </row>
   </sheetData>
@@ -36399,28 +36399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2408.569381512395</v>
+        <v>2612.554228629031</v>
       </c>
       <c r="AB2" t="n">
-        <v>3295.510886367204</v>
+        <v>3574.611953368528</v>
       </c>
       <c r="AC2" t="n">
-        <v>2980.991952650772</v>
+        <v>3233.456005538287</v>
       </c>
       <c r="AD2" t="n">
-        <v>2408569.381512395</v>
+        <v>2612554.228629031</v>
       </c>
       <c r="AE2" t="n">
-        <v>3295510.886367205</v>
+        <v>3574611.953368528</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.824280642734179e-07</v>
+        <v>1.018804155054076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.99768518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>2980991.952650772</v>
+        <v>3233456.005538287</v>
       </c>
     </row>
     <row r="3">
@@ -36505,28 +36505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1702.89616513144</v>
+        <v>1866.135247337493</v>
       </c>
       <c r="AB3" t="n">
-        <v>2329.977659609482</v>
+        <v>2553.328573483845</v>
       </c>
       <c r="AC3" t="n">
-        <v>2107.607861920536</v>
+        <v>2309.642478049707</v>
       </c>
       <c r="AD3" t="n">
-        <v>1702896.16513144</v>
+        <v>1866135.247337493</v>
       </c>
       <c r="AE3" t="n">
-        <v>2329977.659609482</v>
+        <v>2553328.573483845</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.478703162325453e-07</v>
+        <v>1.265794662246833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.63425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>2107607.861920536</v>
+        <v>2309642.478049707</v>
       </c>
     </row>
     <row r="4">
@@ -36611,28 +36611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1511.439303302573</v>
+        <v>1658.346032711114</v>
       </c>
       <c r="AB4" t="n">
-        <v>2068.017934774604</v>
+        <v>2269.02220301886</v>
       </c>
       <c r="AC4" t="n">
-        <v>1870.649205561116</v>
+        <v>2052.469908555403</v>
       </c>
       <c r="AD4" t="n">
-        <v>1511439.303302573</v>
+        <v>1658346.032711114</v>
       </c>
       <c r="AE4" t="n">
-        <v>2068017.934774604</v>
+        <v>2269022.20301886</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.086588822962137e-07</v>
+        <v>1.356546562597507e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.0474537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1870649.205561116</v>
+        <v>2052469.908555402</v>
       </c>
     </row>
     <row r="5">
@@ -36717,28 +36717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1398.06139246473</v>
+        <v>1544.96803236472</v>
       </c>
       <c r="AB5" t="n">
-        <v>1912.889275285857</v>
+        <v>2113.893421060564</v>
       </c>
       <c r="AC5" t="n">
-        <v>1730.325807609534</v>
+        <v>1912.146399822594</v>
       </c>
       <c r="AD5" t="n">
-        <v>1398061.39246473</v>
+        <v>1544968.03236472</v>
       </c>
       <c r="AE5" t="n">
-        <v>1912889.275285857</v>
+        <v>2113893.421060564</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.409209704305631e-07</v>
+        <v>1.404710978984736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.80902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1730325.807609533</v>
+        <v>1912146.399822594</v>
       </c>
     </row>
     <row r="6">
@@ -36823,28 +36823,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1329.84930793655</v>
+        <v>1468.589816192059</v>
       </c>
       <c r="AB6" t="n">
-        <v>1819.558491929617</v>
+        <v>2009.389376124045</v>
       </c>
       <c r="AC6" t="n">
-        <v>1645.902383226236</v>
+        <v>1817.616074262467</v>
       </c>
       <c r="AD6" t="n">
-        <v>1329849.30793655</v>
+        <v>1468589.816192059</v>
       </c>
       <c r="AE6" t="n">
-        <v>1819558.491929617</v>
+        <v>2009389.376124045</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.601650230019291e-07</v>
+        <v>1.433440630864838e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.11458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1645902.383226236</v>
+        <v>1817616.074262467</v>
       </c>
     </row>
     <row r="7">
@@ -36929,28 +36929,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1267.480192793222</v>
+        <v>1414.30149183864</v>
       </c>
       <c r="AB7" t="n">
-        <v>1734.222317059349</v>
+        <v>1935.10969571186</v>
       </c>
       <c r="AC7" t="n">
-        <v>1568.710573115513</v>
+        <v>1750.425542296635</v>
       </c>
       <c r="AD7" t="n">
-        <v>1267480.192793222</v>
+        <v>1414301.49183864</v>
       </c>
       <c r="AE7" t="n">
-        <v>1734222.317059349</v>
+        <v>1935109.69571186</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.73069858255669e-07</v>
+        <v>1.45270639741973e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.66319444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>1568710.573115513</v>
+        <v>1750425.542296635</v>
       </c>
     </row>
     <row r="8">
@@ -37035,28 +37035,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1247.831132004587</v>
+        <v>1386.656891606117</v>
       </c>
       <c r="AB8" t="n">
-        <v>1707.337605232956</v>
+        <v>1897.285134080033</v>
       </c>
       <c r="AC8" t="n">
-        <v>1544.391700452901</v>
+        <v>1716.210903739844</v>
       </c>
       <c r="AD8" t="n">
-        <v>1247831.132004587</v>
+        <v>1386656.891606117</v>
       </c>
       <c r="AE8" t="n">
-        <v>1707337.605232956</v>
+        <v>1897285.134080033</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.770884692338071e-07</v>
+        <v>1.458705824724104e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.52430555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1544391.700452901</v>
+        <v>1716210.903739844</v>
       </c>
     </row>
     <row r="9">
@@ -37141,28 +37141,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1253.680603501778</v>
+        <v>1392.506363103309</v>
       </c>
       <c r="AB9" t="n">
-        <v>1715.341110195884</v>
+        <v>1905.288639042961</v>
       </c>
       <c r="AC9" t="n">
-        <v>1551.631362135156</v>
+        <v>1723.4505654221</v>
       </c>
       <c r="AD9" t="n">
-        <v>1253680.603501779</v>
+        <v>1392506.363103309</v>
       </c>
       <c r="AE9" t="n">
-        <v>1715341.110195884</v>
+        <v>1905288.63904296</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.769752689245638e-07</v>
+        <v>1.458536826771868e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.52430555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1551631.362135157</v>
+        <v>1723450.5654221</v>
       </c>
     </row>
   </sheetData>
